--- a/pythonAI/dataset_XGBoost.xlsx
+++ b/pythonAI/dataset_XGBoost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laravel\IF3D-1-SIKOMPU\pythonAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBE9C69-87C3-4BCC-A9F6-9D69AF1BC74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A903DC73-8BB0-4001-9626-344641E57ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7404236C-F728-4B2C-ADD0-7140CEBBC436}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$918</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$922</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="116">
   <si>
     <t>Nama Dosen</t>
   </si>
@@ -342,24 +342,6 @@
     <t>Sukma Evadini, S.T., M.Kom</t>
   </si>
   <si>
-    <t>TG 101</t>
-  </si>
-  <si>
-    <t>TG 102</t>
-  </si>
-  <si>
-    <t>TG 103</t>
-  </si>
-  <si>
-    <t>TG 104</t>
-  </si>
-  <si>
-    <t>TG 105</t>
-  </si>
-  <si>
-    <t>TG 106</t>
-  </si>
-  <si>
     <t>IF 105</t>
   </si>
   <si>
@@ -376,6 +358,24 @@
   </si>
   <si>
     <t>IF 106</t>
+  </si>
+  <si>
+    <t>GM 101</t>
+  </si>
+  <si>
+    <t>GM 102</t>
+  </si>
+  <si>
+    <t>GM 104</t>
+  </si>
+  <si>
+    <t>GM 103</t>
+  </si>
+  <si>
+    <t>GM 105</t>
+  </si>
+  <si>
+    <t>GM 106</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -455,22 +455,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -497,7 +486,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -814,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2446070B-95BA-406C-A1AA-FC0C8C7DC67A}">
   <dimension ref="A1:G922"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="D338" sqref="D338"/>
+    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -829,7 +817,7 @@
     <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -852,12 +840,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>99</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C2" s="3">
         <v>6</v>
@@ -875,35 +863,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>100</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C3" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D3" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
       </c>
       <c r="G3" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -921,12 +909,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -944,12 +932,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
@@ -967,12 +955,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -990,12 +978,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C8" s="3">
         <v>7</v>
@@ -1013,12 +1001,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C9" s="3">
         <v>5</v>
@@ -1036,12 +1024,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C10" s="3">
         <v>6</v>
@@ -1059,12 +1047,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C11" s="4">
         <v>8</v>
@@ -1082,12 +1070,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C12" s="3">
         <v>4</v>
@@ -1105,12 +1093,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C13" s="3">
         <v>6</v>
@@ -1128,12 +1116,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
@@ -1151,12 +1139,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
@@ -1174,12 +1162,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C16" s="4">
         <v>5</v>
@@ -1197,12 +1185,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C17" s="3">
         <v>8</v>
@@ -1220,12 +1208,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C18" s="4">
         <v>2</v>
@@ -1243,12 +1231,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C19" s="4">
         <v>2</v>
@@ -1266,12 +1254,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C20" s="4">
         <v>7</v>
@@ -1289,12 +1277,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C21" s="3">
         <v>6</v>
@@ -1312,12 +1300,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C22" s="4">
         <v>8</v>
@@ -1335,12 +1323,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>78</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C23" s="3">
         <v>5</v>
@@ -1358,12 +1346,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C24" s="3">
         <v>6</v>
@@ -1381,12 +1369,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
@@ -1404,12 +1392,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -1427,12 +1415,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
@@ -1450,12 +1438,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C28" s="3">
         <v>5</v>
@@ -1473,12 +1461,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C29" s="3">
         <v>4</v>
@@ -1496,12 +1484,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C30" s="3">
         <v>5</v>
@@ -1519,12 +1507,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>99</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
@@ -1542,12 +1530,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C32" s="4">
         <v>1</v>
@@ -1565,12 +1553,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C33" s="3">
         <v>6</v>
@@ -1588,12 +1576,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C34" s="3">
         <v>5</v>
@@ -1611,12 +1599,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
@@ -1634,12 +1622,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C36" s="4">
         <v>2</v>
@@ -1657,12 +1645,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C37" s="3">
         <v>5</v>
@@ -1680,12 +1668,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C38" s="3">
         <v>8</v>
@@ -1703,12 +1691,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
@@ -1726,12 +1714,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C40" s="3">
         <v>4</v>
@@ -1749,12 +1737,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C41" s="4">
         <v>1</v>
@@ -1777,7 +1765,7 @@
         <v>38</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -1800,7 +1788,7 @@
         <v>50</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C43" s="3">
         <v>2</v>
@@ -1823,7 +1811,7 @@
         <v>27</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C44" s="4">
         <v>1</v>
@@ -1846,7 +1834,7 @@
         <v>82</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C45" s="3">
         <v>6</v>
@@ -1869,7 +1857,7 @@
         <v>54</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C46" s="3">
         <v>4</v>
@@ -1892,7 +1880,7 @@
         <v>7</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
@@ -1915,7 +1903,7 @@
         <v>60</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C48" s="3">
         <v>2</v>
@@ -1938,7 +1926,7 @@
         <v>17</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
@@ -1961,7 +1949,7 @@
         <v>38</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C50" s="4">
         <v>4</v>
@@ -1984,7 +1972,7 @@
         <v>16</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C51" s="3">
         <v>5</v>
@@ -2007,7 +1995,7 @@
         <v>83</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -2030,7 +2018,7 @@
         <v>63</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C53" s="3">
         <v>1</v>
@@ -2053,7 +2041,7 @@
         <v>7</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C54" s="4">
         <v>3</v>
@@ -2076,7 +2064,7 @@
         <v>35</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
@@ -2099,7 +2087,7 @@
         <v>47</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
@@ -2122,7 +2110,7 @@
         <v>65</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C57" s="3">
         <v>6</v>
@@ -2145,7 +2133,7 @@
         <v>86</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C58" s="3">
         <v>7</v>
@@ -2168,7 +2156,7 @@
         <v>21</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C59" s="4">
         <v>2</v>
@@ -2191,7 +2179,7 @@
         <v>49</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C60" s="3">
         <v>3</v>
@@ -2214,7 +2202,7 @@
         <v>21</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C61" s="3">
         <v>5</v>
@@ -2237,7 +2225,7 @@
         <v>13</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C62" s="3">
         <v>6</v>
@@ -2260,7 +2248,7 @@
         <v>55</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C63" s="3">
         <v>1</v>
@@ -2283,7 +2271,7 @@
         <v>53</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C64" s="3">
         <v>8</v>
@@ -2306,7 +2294,7 @@
         <v>77</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>
@@ -2329,7 +2317,7 @@
         <v>98</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C66" s="3">
         <v>2</v>
@@ -2352,7 +2340,7 @@
         <v>98</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C67" s="3">
         <v>5</v>
@@ -2375,7 +2363,7 @@
         <v>35</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
@@ -2398,7 +2386,7 @@
         <v>63</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C69" s="3">
         <v>8</v>
@@ -2421,7 +2409,7 @@
         <v>57</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C70" s="3">
         <v>6</v>
@@ -2444,7 +2432,7 @@
         <v>83</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C71" s="3">
         <v>8</v>
@@ -2467,7 +2455,7 @@
         <v>68</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
@@ -2490,7 +2478,7 @@
         <v>32</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C73" s="4">
         <v>4</v>
@@ -2513,7 +2501,7 @@
         <v>46</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C74" s="4">
         <v>3</v>
@@ -2536,7 +2524,7 @@
         <v>17</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C75" s="3">
         <v>1</v>
@@ -2559,7 +2547,7 @@
         <v>84</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C76" s="4">
         <v>7</v>
@@ -2582,7 +2570,7 @@
         <v>83</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C77" s="3">
         <v>1</v>
@@ -2605,7 +2593,7 @@
         <v>14</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C78" s="3">
         <v>5</v>
@@ -2628,7 +2616,7 @@
         <v>51</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C79" s="3">
         <v>7</v>
@@ -2651,7 +2639,7 @@
         <v>9</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C80" s="3">
         <v>4</v>
@@ -2674,7 +2662,7 @@
         <v>44</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C81" s="3">
         <v>7</v>
@@ -2697,7 +2685,7 @@
         <v>37</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C82" s="3">
         <v>6</v>
@@ -2720,7 +2708,7 @@
         <v>33</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C83" s="3">
         <v>5</v>
@@ -2743,7 +2731,7 @@
         <v>16</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
@@ -2766,7 +2754,7 @@
         <v>17</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C85" s="3">
         <v>4</v>
@@ -2789,7 +2777,7 @@
         <v>39</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C86" s="3">
         <v>5</v>
@@ -2812,7 +2800,7 @@
         <v>74</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C87" s="3">
         <v>2</v>
@@ -2835,7 +2823,7 @@
         <v>70</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
@@ -2858,7 +2846,7 @@
         <v>62</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C89" s="3">
         <v>3</v>
@@ -2881,7 +2869,7 @@
         <v>12</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C90" s="3">
         <v>3</v>
@@ -2904,7 +2892,7 @@
         <v>92</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C91" s="3">
         <v>2</v>
@@ -2927,7 +2915,7 @@
         <v>26</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C92" s="4">
         <v>1</v>
@@ -2950,7 +2938,7 @@
         <v>47</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C93" s="3">
         <v>4</v>
@@ -2973,7 +2961,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C94" s="3">
         <v>2</v>
@@ -2996,7 +2984,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C95" s="4">
         <v>5</v>
@@ -3019,7 +3007,7 @@
         <v>48</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C96" s="3">
         <v>5</v>
@@ -3042,7 +3030,7 @@
         <v>64</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C97" s="3">
         <v>3</v>
@@ -3065,7 +3053,7 @@
         <v>76</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C98" s="3">
         <v>1</v>
@@ -3088,7 +3076,7 @@
         <v>74</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C99" s="3">
         <v>1</v>
@@ -3111,7 +3099,7 @@
         <v>89</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C100" s="3">
         <v>8</v>
@@ -3134,7 +3122,7 @@
         <v>56</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C101" s="3">
         <v>3</v>
@@ -3157,7 +3145,7 @@
         <v>30</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C102" s="3">
         <v>6</v>
@@ -3180,7 +3168,7 @@
         <v>96</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C103" s="3">
         <v>6</v>
@@ -3203,7 +3191,7 @@
         <v>49</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C104" s="3">
         <v>3</v>
@@ -3226,7 +3214,7 @@
         <v>99</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C105" s="3">
         <v>2</v>
@@ -3249,7 +3237,7 @@
         <v>27</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C106" s="4">
         <v>1</v>
@@ -3272,7 +3260,7 @@
         <v>46</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C107" s="4">
         <v>1</v>
@@ -3295,7 +3283,7 @@
         <v>101</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
@@ -3318,7 +3306,7 @@
         <v>68</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C109" s="3">
         <v>1</v>
@@ -3341,7 +3329,7 @@
         <v>28</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C110" s="3">
         <v>2</v>
@@ -3364,7 +3352,7 @@
         <v>35</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C111" s="3">
         <v>5</v>
@@ -3387,7 +3375,7 @@
         <v>91</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C112" s="4">
         <v>6</v>
@@ -3410,7 +3398,7 @@
         <v>60</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C113" s="3">
         <v>1</v>
@@ -3433,7 +3421,7 @@
         <v>71</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C114" s="3">
         <v>2</v>
@@ -3456,7 +3444,7 @@
         <v>43</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C115" s="3">
         <v>2</v>
@@ -3479,7 +3467,7 @@
         <v>51</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C116" s="3">
         <v>2</v>
@@ -3502,7 +3490,7 @@
         <v>78</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C117" s="3">
         <v>1</v>
@@ -3525,7 +3513,7 @@
         <v>99</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C118" s="3">
         <v>1</v>
@@ -3548,7 +3536,7 @@
         <v>12</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C119" s="4">
         <v>1</v>
@@ -3571,7 +3559,7 @@
         <v>84</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C120" s="3">
         <v>6</v>
@@ -3594,7 +3582,7 @@
         <v>91</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C121" s="3">
         <v>3</v>
@@ -3617,7 +3605,7 @@
         <v>26</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C122" s="3">
         <v>1</v>
@@ -3640,7 +3628,7 @@
         <v>78</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C123" s="3">
         <v>2</v>
@@ -3663,7 +3651,7 @@
         <v>57</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C124" s="3">
         <v>6</v>
@@ -3686,7 +3674,7 @@
         <v>46</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C125" s="3">
         <v>8</v>
@@ -3709,7 +3697,7 @@
         <v>96</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C126" s="3">
         <v>6</v>
@@ -3732,7 +3720,7 @@
         <v>42</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C127" s="4">
         <v>1</v>
@@ -3755,7 +3743,7 @@
         <v>60</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C128" s="3">
         <v>1</v>
@@ -3778,7 +3766,7 @@
         <v>98</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C129" s="3">
         <v>7</v>
@@ -3801,7 +3789,7 @@
         <v>21</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C130" s="4">
         <v>2</v>
@@ -3824,7 +3812,7 @@
         <v>91</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C131" s="3">
         <v>3</v>
@@ -3847,7 +3835,7 @@
         <v>35</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C132" s="4">
         <v>6</v>
@@ -3870,7 +3858,7 @@
         <v>77</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C133" s="3">
         <v>3</v>
@@ -3893,7 +3881,7 @@
         <v>47</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C134" s="3">
         <v>5</v>
@@ -3916,7 +3904,7 @@
         <v>50</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C135" s="3">
         <v>5</v>
@@ -3939,7 +3927,7 @@
         <v>8</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C136" s="3">
         <v>3</v>
@@ -3962,7 +3950,7 @@
         <v>19</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C137" s="4">
         <v>1</v>
@@ -3985,7 +3973,7 @@
         <v>49</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C138" s="3">
         <v>3</v>
@@ -4008,7 +3996,7 @@
         <v>16</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C139" s="3">
         <v>1</v>
@@ -4031,7 +4019,7 @@
         <v>52</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C140" s="4">
         <v>5</v>
@@ -4054,7 +4042,7 @@
         <v>87</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C141" s="3">
         <v>3</v>
@@ -4077,7 +4065,7 @@
         <v>33</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C142" s="4">
         <v>1</v>
@@ -4100,7 +4088,7 @@
         <v>94</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C143" s="3">
         <v>6</v>
@@ -4123,7 +4111,7 @@
         <v>66</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C144" s="3">
         <v>5</v>
@@ -4146,7 +4134,7 @@
         <v>17</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C145" s="3">
         <v>1</v>
@@ -4169,7 +4157,7 @@
         <v>57</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C146" s="3">
         <v>5</v>
@@ -4192,7 +4180,7 @@
         <v>78</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C147" s="3">
         <v>1</v>
@@ -4215,7 +4203,7 @@
         <v>72</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C148" s="3">
         <v>1</v>
@@ -4238,7 +4226,7 @@
         <v>9</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C149" s="3">
         <v>4</v>
@@ -4261,7 +4249,7 @@
         <v>56</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C150" s="3">
         <v>1</v>
@@ -4284,22 +4272,22 @@
         <v>100</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C151" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D151" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E151" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F151" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G151" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
@@ -4307,7 +4295,7 @@
         <v>35</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C152" s="4">
         <v>5</v>
@@ -4330,7 +4318,7 @@
         <v>42</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C153" s="3">
         <v>1</v>
@@ -4353,7 +4341,7 @@
         <v>53</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C154" s="3">
         <v>8</v>
@@ -4376,7 +4364,7 @@
         <v>72</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C155" s="3">
         <v>6</v>
@@ -4399,22 +4387,22 @@
         <v>100</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C156" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D156" s="8">
         <v>1</v>
       </c>
       <c r="E156" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F156" s="3">
         <v>1</v>
       </c>
       <c r="G156" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
@@ -4422,7 +4410,7 @@
         <v>103</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C157" s="3">
         <v>4</v>
@@ -4445,7 +4433,7 @@
         <v>66</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C158" s="3">
         <v>1</v>
@@ -4468,7 +4456,7 @@
         <v>96</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C159" s="3">
         <v>6</v>
@@ -4491,22 +4479,22 @@
         <v>100</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C160" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D160" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E160" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F160" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G160" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
@@ -4514,7 +4502,7 @@
         <v>59</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C161" s="3">
         <v>2</v>
@@ -4537,7 +4525,7 @@
         <v>93</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C162" s="3">
         <v>3</v>
@@ -4560,7 +4548,7 @@
         <v>42</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C163" s="3">
         <v>1</v>
@@ -4583,7 +4571,7 @@
         <v>92</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C164" s="3">
         <v>8</v>
@@ -4606,7 +4594,7 @@
         <v>76</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C165" s="3">
         <v>4</v>
@@ -4629,7 +4617,7 @@
         <v>87</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C166" s="3">
         <v>1</v>
@@ -4652,7 +4640,7 @@
         <v>102</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C167" s="3">
         <v>5</v>
@@ -4675,7 +4663,7 @@
         <v>49</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C168" s="3">
         <v>3</v>
@@ -4698,7 +4686,7 @@
         <v>75</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C169" s="3">
         <v>2</v>
@@ -4721,7 +4709,7 @@
         <v>28</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C170" s="4">
         <v>1</v>
@@ -4744,7 +4732,7 @@
         <v>9</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C171" s="3">
         <v>7</v>
@@ -4767,7 +4755,7 @@
         <v>73</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C172" s="3">
         <v>1</v>
@@ -4790,7 +4778,7 @@
         <v>15</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C173" s="3">
         <v>2</v>
@@ -4813,7 +4801,7 @@
         <v>16</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C174" s="3">
         <v>2</v>
@@ -4836,7 +4824,7 @@
         <v>27</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C175" s="3">
         <v>2</v>
@@ -4859,7 +4847,7 @@
         <v>59</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C176" s="4">
         <v>7</v>
@@ -4882,7 +4870,7 @@
         <v>77</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C177" s="3">
         <v>1</v>
@@ -4905,7 +4893,7 @@
         <v>8</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C178" s="4">
         <v>6</v>
@@ -4928,7 +4916,7 @@
         <v>89</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C179" s="3">
         <v>8</v>
@@ -4951,7 +4939,7 @@
         <v>42</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C180" s="3">
         <v>1</v>
@@ -4974,7 +4962,7 @@
         <v>75</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C181" s="4">
         <v>6</v>
@@ -4997,7 +4985,7 @@
         <v>36</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C182" s="3">
         <v>1</v>
@@ -5020,7 +5008,7 @@
         <v>80</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C183" s="3">
         <v>5</v>
@@ -5043,7 +5031,7 @@
         <v>88</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C184" s="3">
         <v>7</v>
@@ -5066,7 +5054,7 @@
         <v>95</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C185" s="3">
         <v>1</v>
@@ -5089,7 +5077,7 @@
         <v>15</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C186" s="3">
         <v>4</v>
@@ -5112,7 +5100,7 @@
         <v>71</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C187" s="4">
         <v>8</v>
@@ -5135,7 +5123,7 @@
         <v>48</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C188" s="3">
         <v>5</v>
@@ -5158,7 +5146,7 @@
         <v>98</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C189" s="3">
         <v>5</v>
@@ -5181,7 +5169,7 @@
         <v>8</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C190" s="3">
         <v>3</v>
@@ -5204,7 +5192,7 @@
         <v>39</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C191" s="3">
         <v>1</v>
@@ -5227,7 +5215,7 @@
         <v>73</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C192" s="3">
         <v>1</v>
@@ -5250,7 +5238,7 @@
         <v>15</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C193" s="4">
         <v>2</v>
@@ -5273,7 +5261,7 @@
         <v>99</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C194" s="3">
         <v>2</v>
@@ -5296,7 +5284,7 @@
         <v>67</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C195" s="3">
         <v>2</v>
@@ -5319,7 +5307,7 @@
         <v>9</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C196" s="4">
         <v>1</v>
@@ -5342,7 +5330,7 @@
         <v>30</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C197" s="4">
         <v>1</v>
@@ -5365,7 +5353,7 @@
         <v>47</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C198" s="3">
         <v>4</v>
@@ -5388,7 +5376,7 @@
         <v>26</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C199" s="3">
         <v>7</v>
@@ -5411,7 +5399,7 @@
         <v>32</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C200" s="3">
         <v>3</v>
@@ -5434,7 +5422,7 @@
         <v>60</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C201" s="3">
         <v>1</v>
@@ -5457,7 +5445,7 @@
         <v>55</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C202" s="3">
         <v>1</v>
@@ -5480,7 +5468,7 @@
         <v>43</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C203" s="4">
         <v>1</v>
@@ -5503,7 +5491,7 @@
         <v>36</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C204" s="3">
         <v>1</v>
@@ -5526,7 +5514,7 @@
         <v>41</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C205" s="3">
         <v>1</v>
@@ -5549,7 +5537,7 @@
         <v>79</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C206" s="3">
         <v>4</v>
@@ -5572,7 +5560,7 @@
         <v>93</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C207" s="3">
         <v>6</v>
@@ -5595,7 +5583,7 @@
         <v>45</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C208" s="3">
         <v>8</v>
@@ -5618,7 +5606,7 @@
         <v>95</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C209" s="3">
         <v>7</v>
@@ -5641,7 +5629,7 @@
         <v>36</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C210" s="4">
         <v>1</v>
@@ -5664,7 +5652,7 @@
         <v>43</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C211" s="3">
         <v>1</v>
@@ -5687,7 +5675,7 @@
         <v>28</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C212" s="3">
         <v>2</v>
@@ -5710,7 +5698,7 @@
         <v>38</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C213" s="4">
         <v>6</v>
@@ -5733,7 +5721,7 @@
         <v>15</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C214" s="4">
         <v>4</v>
@@ -5756,7 +5744,7 @@
         <v>45</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C215" s="3">
         <v>3</v>
@@ -5779,7 +5767,7 @@
         <v>46</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C216" s="4">
         <v>1</v>
@@ -5802,7 +5790,7 @@
         <v>33</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C217" s="4">
         <v>1</v>
@@ -5825,7 +5813,7 @@
         <v>85</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C218" s="3">
         <v>5</v>
@@ -5848,7 +5836,7 @@
         <v>80</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C219" s="3">
         <v>5</v>
@@ -5871,7 +5859,7 @@
         <v>9</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C220" s="3">
         <v>4</v>
@@ -5894,7 +5882,7 @@
         <v>71</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C221" s="3">
         <v>8</v>
@@ -5917,7 +5905,7 @@
         <v>86</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C222" s="3">
         <v>8</v>
@@ -5940,7 +5928,7 @@
         <v>83</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C223" s="3">
         <v>4</v>
@@ -5963,7 +5951,7 @@
         <v>57</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C224" s="3">
         <v>5</v>
@@ -5986,7 +5974,7 @@
         <v>39</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C225" s="4">
         <v>1</v>
@@ -6009,7 +5997,7 @@
         <v>90</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C226" s="3">
         <v>8</v>
@@ -6032,7 +6020,7 @@
         <v>57</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C227" s="4">
         <v>4</v>
@@ -6055,7 +6043,7 @@
         <v>38</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C228" s="4">
         <v>6</v>
@@ -6078,7 +6066,7 @@
         <v>94</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C229" s="4">
         <v>8</v>
@@ -6101,7 +6089,7 @@
         <v>101</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C230" s="3">
         <v>1</v>
@@ -6124,7 +6112,7 @@
         <v>78</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C231" s="3">
         <v>2</v>
@@ -6147,7 +6135,7 @@
         <v>99</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C232" s="3">
         <v>1</v>
@@ -6170,7 +6158,7 @@
         <v>80</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C233" s="3">
         <v>1</v>
@@ -6193,7 +6181,7 @@
         <v>45</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C234" s="4">
         <v>1</v>
@@ -6216,7 +6204,7 @@
         <v>26</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C235" s="4">
         <v>1</v>
@@ -6239,7 +6227,7 @@
         <v>28</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C236" s="4">
         <v>1</v>
@@ -6262,7 +6250,7 @@
         <v>102</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C237" s="3">
         <v>5</v>
@@ -6285,7 +6273,7 @@
         <v>66</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C238" s="3">
         <v>1</v>
@@ -6308,7 +6296,7 @@
         <v>47</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C239" s="3">
         <v>5</v>
@@ -6331,7 +6319,7 @@
         <v>40</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C240" s="4">
         <v>1</v>
@@ -6354,7 +6342,7 @@
         <v>49</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C241" s="3">
         <v>3</v>
@@ -6377,30 +6365,30 @@
         <v>81</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C242" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D242" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E242" s="3">
         <v>1</v>
       </c>
       <c r="F242" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G242" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C243" s="4">
         <v>2</v>
@@ -6418,12 +6406,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C244" s="3">
         <v>1</v>
@@ -6441,12 +6429,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C245" s="4">
         <v>2</v>
@@ -6464,12 +6452,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C246" s="3">
         <v>1</v>
@@ -6487,12 +6475,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C247" s="3">
         <v>1</v>
@@ -6510,12 +6498,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="11" t="s">
         <v>78</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C248" s="3">
         <v>1</v>
@@ -6533,12 +6521,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C249" s="3">
         <v>5</v>
@@ -6556,12 +6544,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C250" s="3">
         <v>8</v>
@@ -6579,12 +6567,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C251" s="3">
         <v>1</v>
@@ -6602,12 +6590,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C252" s="3">
         <v>3</v>
@@ -6625,12 +6613,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C253" s="3">
         <v>7</v>
@@ -6648,12 +6636,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C254" s="3">
         <v>4</v>
@@ -6671,12 +6659,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C255" s="4">
         <v>8</v>
@@ -6694,12 +6682,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C256" s="3">
         <v>1</v>
@@ -6717,12 +6705,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C257" s="4">
         <v>4</v>
@@ -6740,12 +6728,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C258" s="4">
         <v>8</v>
@@ -6763,12 +6751,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C259" s="3">
         <v>1</v>
@@ -6786,12 +6774,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C260" s="3">
         <v>1</v>
@@ -6809,12 +6797,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C261" s="3">
         <v>2</v>
@@ -6832,12 +6820,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C262" s="3">
         <v>1</v>
@@ -6855,12 +6843,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C263" s="3">
         <v>1</v>
@@ -6878,12 +6866,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C264" s="3">
         <v>8</v>
@@ -6901,12 +6889,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C265" s="4">
         <v>1</v>
@@ -6924,12 +6912,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C266" s="3">
         <v>1</v>
@@ -6947,12 +6935,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C267" s="3">
         <v>3</v>
@@ -6970,12 +6958,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C268" s="3">
         <v>6</v>
@@ -6993,12 +6981,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="11" t="s">
         <v>67</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C269" s="4">
         <v>4</v>
@@ -7016,12 +7004,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C270" s="3">
         <v>1</v>
@@ -7039,12 +7027,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C271" s="3">
         <v>1</v>
@@ -7062,12 +7050,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C272" s="3">
         <v>7</v>
@@ -7085,12 +7073,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C273" s="3">
         <v>8</v>
@@ -7108,12 +7096,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C274" s="3">
         <v>4</v>
@@ -7131,12 +7119,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C275" s="3">
         <v>8</v>
@@ -7154,12 +7142,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="11" t="s">
         <v>67</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C276" s="3">
         <v>1</v>
@@ -7177,12 +7165,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C277" s="4">
         <v>1</v>
@@ -7200,12 +7188,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C278" s="4">
         <v>4</v>
@@ -7223,12 +7211,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C279" s="3">
         <v>1</v>
@@ -7246,12 +7234,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C280" s="3">
         <v>6</v>
@@ -7269,12 +7257,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C281" s="3">
         <v>4</v>
@@ -7292,12 +7280,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C282" s="4">
         <v>5</v>
@@ -7320,7 +7308,7 @@
         <v>25</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C283" s="3">
         <v>1</v>
@@ -7343,7 +7331,7 @@
         <v>60</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C284" s="3">
         <v>6</v>
@@ -7366,7 +7354,7 @@
         <v>94</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C285" s="3">
         <v>8</v>
@@ -7389,7 +7377,7 @@
         <v>82</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C286" s="3">
         <v>6</v>
@@ -7412,7 +7400,7 @@
         <v>20</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C287" s="4">
         <v>3</v>
@@ -7435,7 +7423,7 @@
         <v>83</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C288" s="4">
         <v>8</v>
@@ -7458,7 +7446,7 @@
         <v>69</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C289" s="3">
         <v>3</v>
@@ -7481,7 +7469,7 @@
         <v>102</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C290" s="3">
         <v>5</v>
@@ -7504,7 +7492,7 @@
         <v>69</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C291" s="3">
         <v>8</v>
@@ -7527,7 +7515,7 @@
         <v>47</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C292" s="3">
         <v>1</v>
@@ -7550,7 +7538,7 @@
         <v>88</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C293" s="3">
         <v>7</v>
@@ -7573,7 +7561,7 @@
         <v>89</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C294" s="3">
         <v>3</v>
@@ -7596,7 +7584,7 @@
         <v>51</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C295" s="3">
         <v>2</v>
@@ -7619,7 +7607,7 @@
         <v>60</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C296" s="3">
         <v>3</v>
@@ -7642,7 +7630,7 @@
         <v>47</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C297" s="3">
         <v>1</v>
@@ -7665,7 +7653,7 @@
         <v>85</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C298" s="3">
         <v>5</v>
@@ -7688,7 +7676,7 @@
         <v>66</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C299" s="3">
         <v>1</v>
@@ -7711,7 +7699,7 @@
         <v>44</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C300" s="3">
         <v>3</v>
@@ -7734,7 +7722,7 @@
         <v>60</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C301" s="3">
         <v>1</v>
@@ -7757,19 +7745,19 @@
         <v>81</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C302" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D302" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E302" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F302" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G302" s="9">
         <v>1</v>
@@ -7780,7 +7768,7 @@
         <v>88</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C303" s="3">
         <v>5</v>
@@ -7803,7 +7791,7 @@
         <v>14</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C304" s="4">
         <v>4</v>
@@ -7826,7 +7814,7 @@
         <v>61</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C305" s="3">
         <v>1</v>
@@ -7849,7 +7837,7 @@
         <v>37</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C306" s="3">
         <v>7</v>
@@ -7872,7 +7860,7 @@
         <v>21</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C307" s="3">
         <v>2</v>
@@ -7895,7 +7883,7 @@
         <v>12</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C308" s="3">
         <v>1</v>
@@ -7918,7 +7906,7 @@
         <v>50</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C309" s="3">
         <v>5</v>
@@ -7941,7 +7929,7 @@
         <v>102</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C310" s="3">
         <v>5</v>
@@ -7964,7 +7952,7 @@
         <v>76</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C311" s="3">
         <v>6</v>
@@ -7987,7 +7975,7 @@
         <v>9</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C312" s="3">
         <v>4</v>
@@ -8010,7 +7998,7 @@
         <v>83</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C313" s="3">
         <v>6</v>
@@ -8033,7 +8021,7 @@
         <v>48</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C314" s="3">
         <v>2</v>
@@ -8056,22 +8044,22 @@
         <v>100</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C315" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D315" s="8">
         <v>1</v>
       </c>
       <c r="E315" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F315" s="3">
         <v>1</v>
       </c>
       <c r="G315" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.35">
@@ -8079,7 +8067,7 @@
         <v>88</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C316" s="3">
         <v>7</v>
@@ -8102,7 +8090,7 @@
         <v>37</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C317" s="3">
         <v>6</v>
@@ -8125,7 +8113,7 @@
         <v>76</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C318" s="3">
         <v>1</v>
@@ -8148,7 +8136,7 @@
         <v>47</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C319" s="3">
         <v>5</v>
@@ -8171,7 +8159,7 @@
         <v>50</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C320" s="3">
         <v>1</v>
@@ -8194,7 +8182,7 @@
         <v>53</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C321" s="3">
         <v>1</v>
@@ -8217,7 +8205,7 @@
         <v>84</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C322" s="3">
         <v>2</v>
@@ -8240,7 +8228,7 @@
         <v>99</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C323" s="3">
         <v>2</v>
@@ -8263,7 +8251,7 @@
         <v>13</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C324" s="4">
         <v>6</v>
@@ -8286,7 +8274,7 @@
         <v>29</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C325" s="3">
         <v>1</v>
@@ -8309,7 +8297,7 @@
         <v>38</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C326" s="3">
         <v>4</v>
@@ -8332,7 +8320,7 @@
         <v>46</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C327" s="3">
         <v>1</v>
@@ -8355,7 +8343,7 @@
         <v>77</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C328" s="3">
         <v>1</v>
@@ -8378,7 +8366,7 @@
         <v>80</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C329" s="3">
         <v>5</v>
@@ -8401,7 +8389,7 @@
         <v>64</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C330" s="3">
         <v>1</v>
@@ -8424,7 +8412,7 @@
         <v>39</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C331" s="3">
         <v>5</v>
@@ -8447,7 +8435,7 @@
         <v>95</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C332" s="3">
         <v>6</v>
@@ -8470,7 +8458,7 @@
         <v>30</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C333" s="3">
         <v>1</v>
@@ -8493,7 +8481,7 @@
         <v>23</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C334" s="4">
         <v>4</v>
@@ -8516,7 +8504,7 @@
         <v>80</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C335" s="3">
         <v>1</v>
@@ -8539,7 +8527,7 @@
         <v>30</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C336" s="3">
         <v>8</v>
@@ -8562,7 +8550,7 @@
         <v>13</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C337" s="3">
         <v>3</v>
@@ -8585,7 +8573,7 @@
         <v>31</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C338" s="3">
         <v>6</v>
@@ -8608,7 +8596,7 @@
         <v>46</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C339" s="3">
         <v>6</v>
@@ -8631,7 +8619,7 @@
         <v>33</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C340" s="3">
         <v>5</v>
@@ -8654,7 +8642,7 @@
         <v>10</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C341" s="4">
         <v>1</v>
@@ -8677,7 +8665,7 @@
         <v>16</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C342" s="3">
         <v>1</v>
@@ -8700,7 +8688,7 @@
         <v>92</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C343" s="4">
         <v>6</v>
@@ -8723,7 +8711,7 @@
         <v>50</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C344" s="3">
         <v>6</v>
@@ -8746,7 +8734,7 @@
         <v>45</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C345" s="3">
         <v>7</v>
@@ -8769,7 +8757,7 @@
         <v>41</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C346" s="4">
         <v>2</v>
@@ -8792,7 +8780,7 @@
         <v>62</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C347" s="3">
         <v>1</v>
@@ -8815,7 +8803,7 @@
         <v>90</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C348" s="3">
         <v>3</v>
@@ -8838,7 +8826,7 @@
         <v>95</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C349" s="3">
         <v>4</v>
@@ -8861,7 +8849,7 @@
         <v>44</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C350" s="3">
         <v>5</v>
@@ -8884,7 +8872,7 @@
         <v>73</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C351" s="3">
         <v>1</v>
@@ -8907,7 +8895,7 @@
         <v>13</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C352" s="3">
         <v>3</v>
@@ -8930,7 +8918,7 @@
         <v>56</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C353" s="3">
         <v>1</v>
@@ -8953,7 +8941,7 @@
         <v>102</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C354" s="3">
         <v>5</v>
@@ -8976,7 +8964,7 @@
         <v>44</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C355" s="4">
         <v>4</v>
@@ -8999,7 +8987,7 @@
         <v>25</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C356" s="4">
         <v>5</v>
@@ -9022,7 +9010,7 @@
         <v>74</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C357" s="3">
         <v>2</v>
@@ -9045,7 +9033,7 @@
         <v>21</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C358" s="3">
         <v>2</v>
@@ -9068,7 +9056,7 @@
         <v>8</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C359" s="3">
         <v>6</v>
@@ -9091,7 +9079,7 @@
         <v>41</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C360" s="3">
         <v>2</v>
@@ -9114,7 +9102,7 @@
         <v>94</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C361" s="4">
         <v>8</v>
@@ -9137,7 +9125,7 @@
         <v>12</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C362" s="3">
         <v>1</v>
@@ -9160,7 +9148,7 @@
         <v>55</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C363" s="3">
         <v>1</v>
@@ -9183,7 +9171,7 @@
         <v>35</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C364" s="4">
         <v>2</v>
@@ -9206,7 +9194,7 @@
         <v>62</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C365" s="3">
         <v>5</v>
@@ -9229,7 +9217,7 @@
         <v>64</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C366" s="3">
         <v>3</v>
@@ -9252,7 +9240,7 @@
         <v>63</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C367" s="3">
         <v>3</v>
@@ -9275,7 +9263,7 @@
         <v>36</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C368" s="3">
         <v>1</v>
@@ -9298,7 +9286,7 @@
         <v>17</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C369" s="3">
         <v>4</v>
@@ -9321,7 +9309,7 @@
         <v>9</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C370" s="3">
         <v>7</v>
@@ -9344,7 +9332,7 @@
         <v>32</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C371" s="4">
         <v>8</v>
@@ -9367,7 +9355,7 @@
         <v>84</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C372" s="3">
         <v>5</v>
@@ -9390,7 +9378,7 @@
         <v>73</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C373" s="4">
         <v>1</v>
@@ -9413,7 +9401,7 @@
         <v>94</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C374" s="3">
         <v>6</v>
@@ -9436,7 +9424,7 @@
         <v>67</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C375" s="3">
         <v>1</v>
@@ -9459,7 +9447,7 @@
         <v>10</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C376" s="3">
         <v>5</v>
@@ -9482,7 +9470,7 @@
         <v>62</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C377" s="3">
         <v>1</v>
@@ -9505,7 +9493,7 @@
         <v>91</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C378" s="4">
         <v>6</v>
@@ -9528,7 +9516,7 @@
         <v>19</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C379" s="3">
         <v>1</v>
@@ -9551,7 +9539,7 @@
         <v>88</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C380" s="4">
         <v>8</v>
@@ -9574,7 +9562,7 @@
         <v>63</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C381" s="3">
         <v>8</v>
@@ -9597,7 +9585,7 @@
         <v>59</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C382" s="4">
         <v>5</v>
@@ -9620,7 +9608,7 @@
         <v>60</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C383" s="4">
         <v>1</v>
@@ -9643,7 +9631,7 @@
         <v>41</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C384" s="3">
         <v>2</v>
@@ -9666,7 +9654,7 @@
         <v>86</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C385" s="3">
         <v>2</v>
@@ -9689,7 +9677,7 @@
         <v>11</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C386" s="3">
         <v>2</v>
@@ -9712,7 +9700,7 @@
         <v>24</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C387" s="3">
         <v>5</v>
@@ -9735,7 +9723,7 @@
         <v>10</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C388" s="3">
         <v>5</v>
@@ -9758,7 +9746,7 @@
         <v>62</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C389" s="3">
         <v>1</v>
@@ -9781,7 +9769,7 @@
         <v>83</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C390" s="3">
         <v>3</v>
@@ -9804,7 +9792,7 @@
         <v>24</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C391" s="3">
         <v>4</v>
@@ -9827,7 +9815,7 @@
         <v>16</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C392" s="4">
         <v>1</v>
@@ -9850,7 +9838,7 @@
         <v>69</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C393" s="3">
         <v>2</v>
@@ -9873,7 +9861,7 @@
         <v>32</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C394" s="3">
         <v>1</v>
@@ -9896,7 +9884,7 @@
         <v>53</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C395" s="3">
         <v>3</v>
@@ -9919,7 +9907,7 @@
         <v>30</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C396" s="3">
         <v>1</v>
@@ -9942,7 +9930,7 @@
         <v>12</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C397" s="3">
         <v>1</v>
@@ -9965,7 +9953,7 @@
         <v>41</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C398" s="3">
         <v>6</v>
@@ -9988,7 +9976,7 @@
         <v>36</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C399" s="3">
         <v>1</v>
@@ -10011,7 +9999,7 @@
         <v>77</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C400" s="3">
         <v>1</v>
@@ -10034,7 +10022,7 @@
         <v>13</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C401" s="4">
         <v>1</v>
@@ -10057,7 +10045,7 @@
         <v>42</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C402" s="3">
         <v>1</v>
@@ -10080,7 +10068,7 @@
         <v>69</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C403" s="3">
         <v>3</v>
@@ -10103,7 +10091,7 @@
         <v>24</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C404" s="3">
         <v>4</v>
@@ -10126,7 +10114,7 @@
         <v>50</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C405" s="4">
         <v>8</v>
@@ -10149,7 +10137,7 @@
         <v>53</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C406" s="3">
         <v>3</v>
@@ -10172,7 +10160,7 @@
         <v>29</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C407" s="3">
         <v>1</v>
@@ -10195,7 +10183,7 @@
         <v>86</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C408" s="3">
         <v>1</v>
@@ -10218,7 +10206,7 @@
         <v>36</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C409" s="3">
         <v>1</v>
@@ -10241,7 +10229,7 @@
         <v>20</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C410" s="3">
         <v>5</v>
@@ -10264,7 +10252,7 @@
         <v>11</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C411" s="3">
         <v>6</v>
@@ -10287,7 +10275,7 @@
         <v>78</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C412" s="3">
         <v>1</v>
@@ -10310,7 +10298,7 @@
         <v>10</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C413" s="3">
         <v>6</v>
@@ -10333,7 +10321,7 @@
         <v>81</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C414" s="3">
         <v>1</v>
@@ -10356,7 +10344,7 @@
         <v>61</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C415" s="3">
         <v>5</v>
@@ -10379,7 +10367,7 @@
         <v>49</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C416" s="3">
         <v>3</v>
@@ -10402,7 +10390,7 @@
         <v>64</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C417" s="3">
         <v>1</v>
@@ -10425,7 +10413,7 @@
         <v>11</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C418" s="3">
         <v>1</v>
@@ -10448,7 +10436,7 @@
         <v>30</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C419" s="3">
         <v>6</v>
@@ -10471,7 +10459,7 @@
         <v>17</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C420" s="4">
         <v>5</v>
@@ -10494,7 +10482,7 @@
         <v>53</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C421" s="3">
         <v>1</v>
@@ -10517,7 +10505,7 @@
         <v>57</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C422" s="3">
         <v>5</v>
@@ -10540,7 +10528,7 @@
         <v>85</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C423" s="3">
         <v>8</v>
@@ -10563,7 +10551,7 @@
         <v>85</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C424" s="3">
         <v>8</v>
@@ -10586,7 +10574,7 @@
         <v>17</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C425" s="4">
         <v>1</v>
@@ -10609,7 +10597,7 @@
         <v>65</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C426" s="3">
         <v>7</v>
@@ -10632,7 +10620,7 @@
         <v>10</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C427" s="3">
         <v>5</v>
@@ -10655,7 +10643,7 @@
         <v>44</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C428" s="3">
         <v>3</v>
@@ -10678,7 +10666,7 @@
         <v>88</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C429" s="3">
         <v>7</v>
@@ -10701,7 +10689,7 @@
         <v>39</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C430" s="3">
         <v>4</v>
@@ -10724,7 +10712,7 @@
         <v>26</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C431" s="3">
         <v>7</v>
@@ -10747,7 +10735,7 @@
         <v>64</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C432" s="3">
         <v>8</v>
@@ -10770,7 +10758,7 @@
         <v>77</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C433" s="3">
         <v>8</v>
@@ -10793,7 +10781,7 @@
         <v>44</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C434" s="3">
         <v>4</v>
@@ -10816,7 +10804,7 @@
         <v>23</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C435" s="4">
         <v>8</v>
@@ -10839,7 +10827,7 @@
         <v>32</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C436" s="3">
         <v>6</v>
@@ -10862,7 +10850,7 @@
         <v>28</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C437" s="3">
         <v>6</v>
@@ -10885,7 +10873,7 @@
         <v>29</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C438" s="3">
         <v>1</v>
@@ -10908,7 +10896,7 @@
         <v>21</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C439" s="3">
         <v>4</v>
@@ -10931,7 +10919,7 @@
         <v>33</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C440" s="3">
         <v>5</v>
@@ -10954,7 +10942,7 @@
         <v>28</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C441" s="3">
         <v>2</v>
@@ -10977,7 +10965,7 @@
         <v>46</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C442" s="3">
         <v>6</v>
@@ -11000,7 +10988,7 @@
         <v>34</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C443" s="3">
         <v>6</v>
@@ -11023,7 +11011,7 @@
         <v>58</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C444" s="3">
         <v>2</v>
@@ -11046,7 +11034,7 @@
         <v>70</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C445" s="4">
         <v>2</v>
@@ -11069,7 +11057,7 @@
         <v>55</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C446" s="3">
         <v>1</v>
@@ -11092,7 +11080,7 @@
         <v>85</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C447" s="4">
         <v>4</v>
@@ -11115,7 +11103,7 @@
         <v>43</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C448" s="3">
         <v>3</v>
@@ -11138,7 +11126,7 @@
         <v>68</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C449" s="4">
         <v>6</v>
@@ -11161,7 +11149,7 @@
         <v>39</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C450" s="3">
         <v>5</v>
@@ -11184,7 +11172,7 @@
         <v>63</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C451" s="3">
         <v>1</v>
@@ -11207,7 +11195,7 @@
         <v>54</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C452" s="3">
         <v>1</v>
@@ -11230,7 +11218,7 @@
         <v>83</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C453" s="3">
         <v>1</v>
@@ -11253,7 +11241,7 @@
         <v>91</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C454" s="3">
         <v>4</v>
@@ -11276,7 +11264,7 @@
         <v>47</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C455" s="3">
         <v>1</v>
@@ -11299,7 +11287,7 @@
         <v>61</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C456" s="3">
         <v>1</v>
@@ -11322,7 +11310,7 @@
         <v>49</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C457" s="3">
         <v>3</v>
@@ -11345,7 +11333,7 @@
         <v>30</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C458" s="3">
         <v>5</v>
@@ -11368,7 +11356,7 @@
         <v>31</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C459" s="3">
         <v>1</v>
@@ -11391,7 +11379,7 @@
         <v>58</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C460" s="3">
         <v>2</v>
@@ -11414,7 +11402,7 @@
         <v>29</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C461" s="4">
         <v>5</v>
@@ -11437,7 +11425,7 @@
         <v>31</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C462" s="4">
         <v>1</v>
@@ -11460,7 +11448,7 @@
         <v>35</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C463" s="4">
         <v>6</v>
@@ -11483,7 +11471,7 @@
         <v>81</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C464" s="4">
         <v>1</v>
@@ -11506,7 +11494,7 @@
         <v>41</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C465" s="3">
         <v>6</v>
@@ -11529,7 +11517,7 @@
         <v>14</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C466" s="3">
         <v>1</v>
@@ -11552,7 +11540,7 @@
         <v>20</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C467" s="3">
         <v>8</v>
@@ -11575,7 +11563,7 @@
         <v>43</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C468" s="3">
         <v>5</v>
@@ -11598,7 +11586,7 @@
         <v>55</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C469" s="4">
         <v>2</v>
@@ -11621,7 +11609,7 @@
         <v>23</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C470" s="3">
         <v>3</v>
@@ -11644,7 +11632,7 @@
         <v>65</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C471" s="3">
         <v>1</v>
@@ -11667,7 +11655,7 @@
         <v>82</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C472" s="3">
         <v>4</v>
@@ -11690,7 +11678,7 @@
         <v>102</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C473" s="3">
         <v>5</v>
@@ -11713,7 +11701,7 @@
         <v>63</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C474" s="4">
         <v>7</v>
@@ -11736,7 +11724,7 @@
         <v>98</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C475" s="3">
         <v>2</v>
@@ -11759,7 +11747,7 @@
         <v>40</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C476" s="4">
         <v>3</v>
@@ -11782,7 +11770,7 @@
         <v>13</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C477" s="3">
         <v>1</v>
@@ -11805,7 +11793,7 @@
         <v>101</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C478" s="3">
         <v>1</v>
@@ -11828,7 +11816,7 @@
         <v>72</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C479" s="3">
         <v>6</v>
@@ -11851,7 +11839,7 @@
         <v>66</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C480" s="3">
         <v>1</v>
@@ -11874,7 +11862,7 @@
         <v>24</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C481" s="4">
         <v>2</v>
@@ -11897,7 +11885,7 @@
         <v>77</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C482" s="3">
         <v>6</v>
@@ -11920,7 +11908,7 @@
         <v>7</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C483" s="4">
         <v>1</v>
@@ -11943,7 +11931,7 @@
         <v>45</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C484" s="3">
         <v>1</v>
@@ -11966,7 +11954,7 @@
         <v>62</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C485" s="3">
         <v>1</v>
@@ -11989,7 +11977,7 @@
         <v>85</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C486" s="3">
         <v>8</v>
@@ -12012,7 +12000,7 @@
         <v>57</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C487" s="3">
         <v>5</v>
@@ -12035,7 +12023,7 @@
         <v>14</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C488" s="3">
         <v>5</v>
@@ -12058,7 +12046,7 @@
         <v>64</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C489" s="3">
         <v>8</v>
@@ -12081,7 +12069,7 @@
         <v>7</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C490" s="3">
         <v>5</v>
@@ -12104,7 +12092,7 @@
         <v>62</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C491" s="4">
         <v>5</v>
@@ -12127,7 +12115,7 @@
         <v>14</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C492" s="3">
         <v>6</v>
@@ -12150,7 +12138,7 @@
         <v>51</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C493" s="3">
         <v>7</v>
@@ -12173,7 +12161,7 @@
         <v>71</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C494" s="4">
         <v>8</v>
@@ -12196,7 +12184,7 @@
         <v>82</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C495" s="3">
         <v>5</v>
@@ -12219,7 +12207,7 @@
         <v>76</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C496" s="3">
         <v>2</v>
@@ -12242,7 +12230,7 @@
         <v>25</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C497" s="3">
         <v>8</v>
@@ -12265,7 +12253,7 @@
         <v>66</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C498" s="3">
         <v>1</v>
@@ -12288,7 +12276,7 @@
         <v>22</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C499" s="4">
         <v>8</v>
@@ -12311,7 +12299,7 @@
         <v>73</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C500" s="3">
         <v>4</v>
@@ -12334,7 +12322,7 @@
         <v>90</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C501" s="3">
         <v>3</v>
@@ -12357,7 +12345,7 @@
         <v>73</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C502" s="3">
         <v>1</v>
@@ -12380,19 +12368,19 @@
         <v>81</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C503" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D503" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E503" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F503" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G503" s="6">
         <v>1</v>
@@ -12403,7 +12391,7 @@
         <v>13</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C504" s="3">
         <v>1</v>
@@ -12426,7 +12414,7 @@
         <v>48</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C505" s="4">
         <v>5</v>
@@ -12449,7 +12437,7 @@
         <v>66</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C506" s="3">
         <v>5</v>
@@ -12472,7 +12460,7 @@
         <v>33</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C507" s="3">
         <v>1</v>
@@ -12495,7 +12483,7 @@
         <v>38</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C508" s="3">
         <v>4</v>
@@ -12518,7 +12506,7 @@
         <v>72</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C509" s="3">
         <v>6</v>
@@ -12541,7 +12529,7 @@
         <v>19</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C510" s="3">
         <v>5</v>
@@ -12564,7 +12552,7 @@
         <v>22</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C511" s="4">
         <v>8</v>
@@ -12587,7 +12575,7 @@
         <v>93</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C512" s="3">
         <v>6</v>
@@ -12610,7 +12598,7 @@
         <v>81</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C513" s="3">
         <v>1</v>
@@ -12633,7 +12621,7 @@
         <v>24</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C514" s="4">
         <v>2</v>
@@ -12656,7 +12644,7 @@
         <v>19</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C515" s="3">
         <v>5</v>
@@ -12679,7 +12667,7 @@
         <v>87</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C516" s="3">
         <v>5</v>
@@ -12702,7 +12690,7 @@
         <v>8</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C517" s="4">
         <v>3</v>
@@ -12725,7 +12713,7 @@
         <v>80</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C518" s="3">
         <v>5</v>
@@ -12748,7 +12736,7 @@
         <v>92</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C519" s="3">
         <v>8</v>
@@ -12771,7 +12759,7 @@
         <v>16</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C520" s="3">
         <v>7</v>
@@ -12794,7 +12782,7 @@
         <v>33</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C521" s="3">
         <v>1</v>
@@ -12817,7 +12805,7 @@
         <v>32</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C522" s="3">
         <v>7</v>
@@ -12840,7 +12828,7 @@
         <v>48</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C523" s="3">
         <v>6</v>
@@ -12863,7 +12851,7 @@
         <v>22</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C524" s="4">
         <v>1</v>
@@ -12886,7 +12874,7 @@
         <v>85</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C525" s="4">
         <v>4</v>
@@ -12909,7 +12897,7 @@
         <v>94</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C526" s="4">
         <v>5</v>
@@ -12932,7 +12920,7 @@
         <v>64</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C527" s="3">
         <v>1</v>
@@ -12955,7 +12943,7 @@
         <v>27</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C528" s="3">
         <v>7</v>
@@ -12978,7 +12966,7 @@
         <v>62</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C529" s="4">
         <v>2</v>
@@ -13001,7 +12989,7 @@
         <v>48</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C530" s="3">
         <v>2</v>
@@ -13024,7 +13012,7 @@
         <v>31</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C531" s="4">
         <v>2</v>
@@ -13047,7 +13035,7 @@
         <v>61</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C532" s="3">
         <v>6</v>
@@ -13070,7 +13058,7 @@
         <v>45</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C533" s="3">
         <v>3</v>
@@ -13093,7 +13081,7 @@
         <v>45</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C534" s="3">
         <v>1</v>
@@ -13116,7 +13104,7 @@
         <v>45</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C535" s="3">
         <v>1</v>
@@ -13139,7 +13127,7 @@
         <v>103</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C536" s="3">
         <v>8</v>
@@ -13162,7 +13150,7 @@
         <v>94</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C537" s="3">
         <v>8</v>
@@ -13185,7 +13173,7 @@
         <v>16</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C538" s="3">
         <v>2</v>
@@ -13208,7 +13196,7 @@
         <v>37</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C539" s="4">
         <v>2</v>
@@ -13231,7 +13219,7 @@
         <v>10</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C540" s="3">
         <v>6</v>
@@ -13254,7 +13242,7 @@
         <v>78</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C541" s="3">
         <v>7</v>
@@ -13277,7 +13265,7 @@
         <v>29</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C542" s="3">
         <v>3</v>
@@ -13300,7 +13288,7 @@
         <v>20</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C543" s="3">
         <v>1</v>
@@ -13323,7 +13311,7 @@
         <v>38</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C544" s="3">
         <v>5</v>
@@ -13346,7 +13334,7 @@
         <v>66</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C545" s="3">
         <v>5</v>
@@ -13369,7 +13357,7 @@
         <v>11</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C546" s="3">
         <v>1</v>
@@ -13392,7 +13380,7 @@
         <v>101</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C547" s="3">
         <v>1</v>
@@ -13415,7 +13403,7 @@
         <v>61</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C548" s="3">
         <v>2</v>
@@ -13438,7 +13426,7 @@
         <v>73</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C549" s="3">
         <v>5</v>
@@ -13461,7 +13449,7 @@
         <v>93</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C550" s="3">
         <v>8</v>
@@ -13484,7 +13472,7 @@
         <v>86</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C551" s="3">
         <v>1</v>
@@ -13507,7 +13495,7 @@
         <v>60</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C552" s="3">
         <v>1</v>
@@ -13530,7 +13518,7 @@
         <v>77</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C553" s="3">
         <v>1</v>
@@ -13553,7 +13541,7 @@
         <v>16</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C554" s="3">
         <v>4</v>
@@ -13576,7 +13564,7 @@
         <v>89</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C555" s="3">
         <v>6</v>
@@ -13599,7 +13587,7 @@
         <v>54</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C556" s="3">
         <v>4</v>
@@ -13622,7 +13610,7 @@
         <v>7</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C557" s="3">
         <v>3</v>
@@ -13645,7 +13633,7 @@
         <v>48</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C558" s="3">
         <v>5</v>
@@ -13668,7 +13656,7 @@
         <v>93</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C559" s="4">
         <v>8</v>
@@ -13691,7 +13679,7 @@
         <v>15</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C560" s="4">
         <v>8</v>
@@ -13714,7 +13702,7 @@
         <v>10</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C561" s="4">
         <v>1</v>
@@ -13737,7 +13725,7 @@
         <v>61</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C562" s="3">
         <v>5</v>
@@ -13760,7 +13748,7 @@
         <v>24</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C563" s="3">
         <v>5</v>
@@ -13783,7 +13771,7 @@
         <v>58</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C564" s="3">
         <v>3</v>
@@ -13806,7 +13794,7 @@
         <v>18</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C565" s="3">
         <v>4</v>
@@ -13829,7 +13817,7 @@
         <v>23</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C566" s="3">
         <v>7</v>
@@ -13852,7 +13840,7 @@
         <v>91</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C567" s="3">
         <v>6</v>
@@ -13875,7 +13863,7 @@
         <v>88</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C568" s="4">
         <v>8</v>
@@ -13898,7 +13886,7 @@
         <v>76</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C569" s="3">
         <v>1</v>
@@ -13921,7 +13909,7 @@
         <v>22</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C570" s="3">
         <v>1</v>
@@ -13944,7 +13932,7 @@
         <v>68</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C571" s="3">
         <v>1</v>
@@ -13967,7 +13955,7 @@
         <v>38</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C572" s="3">
         <v>1</v>
@@ -13990,7 +13978,7 @@
         <v>87</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C573" s="3">
         <v>1</v>
@@ -14013,7 +14001,7 @@
         <v>74</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C574" s="3">
         <v>1</v>
@@ -14036,7 +14024,7 @@
         <v>33</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C575" s="3">
         <v>5</v>
@@ -14059,7 +14047,7 @@
         <v>25</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C576" s="3">
         <v>1</v>
@@ -14082,7 +14070,7 @@
         <v>12</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C577" s="3">
         <v>3</v>
@@ -14105,7 +14093,7 @@
         <v>75</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C578" s="3">
         <v>2</v>
@@ -14128,7 +14116,7 @@
         <v>47</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C579" s="4">
         <v>1</v>
@@ -14151,7 +14139,7 @@
         <v>89</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C580" s="3">
         <v>3</v>
@@ -14174,7 +14162,7 @@
         <v>12</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C581" s="3">
         <v>1</v>
@@ -14197,7 +14185,7 @@
         <v>48</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C582" s="4">
         <v>5</v>
@@ -14220,7 +14208,7 @@
         <v>99</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C583" s="3">
         <v>1</v>
@@ -14243,7 +14231,7 @@
         <v>30</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C584" s="3">
         <v>1</v>
@@ -14266,7 +14254,7 @@
         <v>49</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C585" s="3">
         <v>3</v>
@@ -14289,7 +14277,7 @@
         <v>62</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C586" s="3">
         <v>1</v>
@@ -14312,7 +14300,7 @@
         <v>53</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C587" s="4">
         <v>8</v>
@@ -14335,7 +14323,7 @@
         <v>70</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C588" s="3">
         <v>4</v>
@@ -14358,7 +14346,7 @@
         <v>54</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C589" s="3">
         <v>1</v>
@@ -14381,7 +14369,7 @@
         <v>51</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C590" s="3">
         <v>1</v>
@@ -14404,7 +14392,7 @@
         <v>93</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C591" s="3">
         <v>6</v>
@@ -14427,7 +14415,7 @@
         <v>9</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C592" s="3">
         <v>7</v>
@@ -14450,7 +14438,7 @@
         <v>76</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C593" s="3">
         <v>6</v>
@@ -14473,7 +14461,7 @@
         <v>12</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C594" s="3">
         <v>1</v>
@@ -14496,7 +14484,7 @@
         <v>67</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C595" s="3">
         <v>4</v>
@@ -14519,7 +14507,7 @@
         <v>75</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C596" s="3">
         <v>2</v>
@@ -14542,22 +14530,22 @@
         <v>100</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C597" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D597" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E597" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F597" s="3">
         <v>1</v>
       </c>
       <c r="G597" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.35">
@@ -14565,7 +14553,7 @@
         <v>54</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C598" s="3">
         <v>1</v>
@@ -14588,7 +14576,7 @@
         <v>43</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C599" s="4">
         <v>1</v>
@@ -14611,7 +14599,7 @@
         <v>67</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C600" s="3">
         <v>1</v>
@@ -14634,7 +14622,7 @@
         <v>76</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C601" s="3">
         <v>1</v>
@@ -14657,7 +14645,7 @@
         <v>26</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C602" s="3">
         <v>1</v>
@@ -14680,7 +14668,7 @@
         <v>17</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C603" s="3">
         <v>1</v>
@@ -14703,7 +14691,7 @@
         <v>8</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C604" s="4">
         <v>6</v>
@@ -14726,7 +14714,7 @@
         <v>77</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C605" s="3">
         <v>6</v>
@@ -14749,7 +14737,7 @@
         <v>74</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C606" s="3">
         <v>2</v>
@@ -14772,7 +14760,7 @@
         <v>68</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C607" s="3">
         <v>1</v>
@@ -14795,7 +14783,7 @@
         <v>98</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C608" s="3">
         <v>4</v>
@@ -14818,7 +14806,7 @@
         <v>63</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C609" s="4">
         <v>7</v>
@@ -14841,7 +14829,7 @@
         <v>68</v>
       </c>
       <c r="B610" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C610" s="3">
         <v>6</v>
@@ -14864,7 +14852,7 @@
         <v>46</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C611" s="3">
         <v>1</v>
@@ -14887,7 +14875,7 @@
         <v>101</v>
       </c>
       <c r="B612" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C612" s="3">
         <v>1</v>
@@ -14910,7 +14898,7 @@
         <v>16</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C613" s="4">
         <v>5</v>
@@ -14933,7 +14921,7 @@
         <v>7</v>
       </c>
       <c r="B614" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C614" s="4">
         <v>1</v>
@@ -14956,7 +14944,7 @@
         <v>84</v>
       </c>
       <c r="B615" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C615" s="3">
         <v>5</v>
@@ -14979,7 +14967,7 @@
         <v>85</v>
       </c>
       <c r="B616" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C616" s="3">
         <v>4</v>
@@ -15002,7 +14990,7 @@
         <v>101</v>
       </c>
       <c r="B617" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C617" s="3">
         <v>1</v>
@@ -15025,7 +15013,7 @@
         <v>18</v>
       </c>
       <c r="B618" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C618" s="4">
         <v>4</v>
@@ -15048,7 +15036,7 @@
         <v>61</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C619" s="3">
         <v>6</v>
@@ -15071,7 +15059,7 @@
         <v>34</v>
       </c>
       <c r="B620" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C620" s="3">
         <v>1</v>
@@ -15094,7 +15082,7 @@
         <v>96</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C621" s="3">
         <v>8</v>
@@ -15117,7 +15105,7 @@
         <v>81</v>
       </c>
       <c r="B622" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C622" s="3">
         <v>1</v>
@@ -15140,7 +15128,7 @@
         <v>84</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C623" s="3">
         <v>6</v>
@@ -15163,7 +15151,7 @@
         <v>40</v>
       </c>
       <c r="B624" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C624" s="3">
         <v>5</v>
@@ -15186,7 +15174,7 @@
         <v>103</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C625" s="3">
         <v>4</v>
@@ -15209,7 +15197,7 @@
         <v>50</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C626" s="3">
         <v>1</v>
@@ -15232,7 +15220,7 @@
         <v>60</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C627" s="4">
         <v>5</v>
@@ -15255,7 +15243,7 @@
         <v>92</v>
       </c>
       <c r="B628" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C628" s="3">
         <v>7</v>
@@ -15278,7 +15266,7 @@
         <v>10</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C629" s="3">
         <v>6</v>
@@ -15301,7 +15289,7 @@
         <v>90</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C630" s="3">
         <v>6</v>
@@ -15324,7 +15312,7 @@
         <v>19</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C631" s="4">
         <v>3</v>
@@ -15347,7 +15335,7 @@
         <v>71</v>
       </c>
       <c r="B632" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C632" s="3">
         <v>2</v>
@@ -15370,7 +15358,7 @@
         <v>51</v>
       </c>
       <c r="B633" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C633" s="3">
         <v>2</v>
@@ -15393,7 +15381,7 @@
         <v>59</v>
       </c>
       <c r="B634" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C634" s="3">
         <v>2</v>
@@ -15416,7 +15404,7 @@
         <v>28</v>
       </c>
       <c r="B635" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C635" s="4">
         <v>3</v>
@@ -15439,7 +15427,7 @@
         <v>24</v>
       </c>
       <c r="B636" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C636" s="3">
         <v>5</v>
@@ -15462,7 +15450,7 @@
         <v>90</v>
       </c>
       <c r="B637" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C637" s="4">
         <v>8</v>
@@ -15485,7 +15473,7 @@
         <v>56</v>
       </c>
       <c r="B638" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C638" s="3">
         <v>3</v>
@@ -15508,7 +15496,7 @@
         <v>98</v>
       </c>
       <c r="B639" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C639" s="3">
         <v>4</v>
@@ -15531,7 +15519,7 @@
         <v>43</v>
       </c>
       <c r="B640" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C640" s="3">
         <v>1</v>
@@ -15554,7 +15542,7 @@
         <v>97</v>
       </c>
       <c r="B641" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C641" s="3">
         <v>8</v>
@@ -15577,7 +15565,7 @@
         <v>16</v>
       </c>
       <c r="B642" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C642" s="3">
         <v>4</v>
@@ -15600,7 +15588,7 @@
         <v>44</v>
       </c>
       <c r="B643" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C643" s="4">
         <v>4</v>
@@ -15623,7 +15611,7 @@
         <v>101</v>
       </c>
       <c r="B644" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C644" s="3">
         <v>1</v>
@@ -15646,7 +15634,7 @@
         <v>34</v>
       </c>
       <c r="B645" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C645" s="4">
         <v>2</v>
@@ -15669,7 +15657,7 @@
         <v>77</v>
       </c>
       <c r="B646" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C646" s="3">
         <v>8</v>
@@ -15692,7 +15680,7 @@
         <v>34</v>
       </c>
       <c r="B647" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C647" s="3">
         <v>5</v>
@@ -15715,7 +15703,7 @@
         <v>95</v>
       </c>
       <c r="B648" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C648" s="3">
         <v>4</v>
@@ -15738,7 +15726,7 @@
         <v>92</v>
       </c>
       <c r="B649" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C649" s="3">
         <v>7</v>
@@ -15761,7 +15749,7 @@
         <v>93</v>
       </c>
       <c r="B650" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C650" s="3">
         <v>8</v>
@@ -15784,7 +15772,7 @@
         <v>42</v>
       </c>
       <c r="B651" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C651" s="3">
         <v>1</v>
@@ -15807,7 +15795,7 @@
         <v>23</v>
       </c>
       <c r="B652" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C652" s="3">
         <v>7</v>
@@ -15830,7 +15818,7 @@
         <v>61</v>
       </c>
       <c r="B653" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C653" s="3">
         <v>1</v>
@@ -15853,7 +15841,7 @@
         <v>45</v>
       </c>
       <c r="B654" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C654" s="4">
         <v>1</v>
@@ -15876,7 +15864,7 @@
         <v>79</v>
       </c>
       <c r="B655" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C655" s="3">
         <v>2</v>
@@ -15899,7 +15887,7 @@
         <v>7</v>
       </c>
       <c r="B656" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C656" s="4">
         <v>1</v>
@@ -15922,7 +15910,7 @@
         <v>13</v>
       </c>
       <c r="B657" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C657" s="4">
         <v>6</v>
@@ -15945,7 +15933,7 @@
         <v>65</v>
       </c>
       <c r="B658" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C658" s="3">
         <v>7</v>
@@ -15968,7 +15956,7 @@
         <v>36</v>
       </c>
       <c r="B659" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C659" s="4">
         <v>1</v>
@@ -15991,7 +15979,7 @@
         <v>10</v>
       </c>
       <c r="B660" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C660" s="4">
         <v>2</v>
@@ -16014,7 +16002,7 @@
         <v>18</v>
       </c>
       <c r="B661" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C661" s="4">
         <v>4</v>
@@ -16037,7 +16025,7 @@
         <v>66</v>
       </c>
       <c r="B662" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C662" s="3">
         <v>5</v>
@@ -16060,7 +16048,7 @@
         <v>52</v>
       </c>
       <c r="B663" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C663" s="3">
         <v>4</v>
@@ -16083,7 +16071,7 @@
         <v>61</v>
       </c>
       <c r="B664" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C664" s="4">
         <v>6</v>
@@ -16106,7 +16094,7 @@
         <v>87</v>
       </c>
       <c r="B665" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C665" s="3">
         <v>3</v>
@@ -16129,7 +16117,7 @@
         <v>19</v>
       </c>
       <c r="B666" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C666" s="4">
         <v>1</v>
@@ -16152,7 +16140,7 @@
         <v>31</v>
       </c>
       <c r="B667" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C667" s="3">
         <v>1</v>
@@ -16175,7 +16163,7 @@
         <v>97</v>
       </c>
       <c r="B668" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C668" s="3">
         <v>8</v>
@@ -16198,7 +16186,7 @@
         <v>23</v>
       </c>
       <c r="B669" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C669" s="3">
         <v>1</v>
@@ -16221,7 +16209,7 @@
         <v>19</v>
       </c>
       <c r="B670" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C670" s="3">
         <v>7</v>
@@ -16244,7 +16232,7 @@
         <v>28</v>
       </c>
       <c r="B671" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C671" s="3">
         <v>2</v>
@@ -16267,7 +16255,7 @@
         <v>10</v>
       </c>
       <c r="B672" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C672" s="4">
         <v>2</v>
@@ -16290,7 +16278,7 @@
         <v>23</v>
       </c>
       <c r="B673" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C673" s="3">
         <v>1</v>
@@ -16313,7 +16301,7 @@
         <v>35</v>
       </c>
       <c r="B674" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C674" s="3">
         <v>2</v>
@@ -16336,7 +16324,7 @@
         <v>49</v>
       </c>
       <c r="B675" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C675" s="3">
         <v>5</v>
@@ -16359,7 +16347,7 @@
         <v>91</v>
       </c>
       <c r="B676" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C676" s="3">
         <v>4</v>
@@ -16382,7 +16370,7 @@
         <v>21</v>
       </c>
       <c r="B677" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C677" s="3">
         <v>1</v>
@@ -16405,7 +16393,7 @@
         <v>45</v>
       </c>
       <c r="B678" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C678" s="3">
         <v>1</v>
@@ -16428,7 +16416,7 @@
         <v>41</v>
       </c>
       <c r="B679" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C679" s="4">
         <v>2</v>
@@ -16451,7 +16439,7 @@
         <v>9</v>
       </c>
       <c r="B680" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C680" s="4">
         <v>1</v>
@@ -16474,7 +16462,7 @@
         <v>70</v>
       </c>
       <c r="B681" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C681" s="3">
         <v>1</v>
@@ -16497,7 +16485,7 @@
         <v>15</v>
       </c>
       <c r="B682" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C682" s="4">
         <v>2</v>
@@ -16520,7 +16508,7 @@
         <v>24</v>
       </c>
       <c r="B683" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C683" s="3">
         <v>5</v>
@@ -16543,7 +16531,7 @@
         <v>85</v>
       </c>
       <c r="B684" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C684" s="3">
         <v>8</v>
@@ -16566,7 +16554,7 @@
         <v>50</v>
       </c>
       <c r="B685" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C685" s="4">
         <v>1</v>
@@ -16589,7 +16577,7 @@
         <v>23</v>
       </c>
       <c r="B686" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C686" s="3">
         <v>1</v>
@@ -16612,7 +16600,7 @@
         <v>98</v>
       </c>
       <c r="B687" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C687" s="3">
         <v>7</v>
@@ -16635,7 +16623,7 @@
         <v>85</v>
       </c>
       <c r="B688" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C688" s="3">
         <v>8</v>
@@ -16658,7 +16646,7 @@
         <v>23</v>
       </c>
       <c r="B689" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C689" s="4">
         <v>4</v>
@@ -16681,7 +16669,7 @@
         <v>82</v>
       </c>
       <c r="B690" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C690" s="3">
         <v>5</v>
@@ -16704,7 +16692,7 @@
         <v>41</v>
       </c>
       <c r="B691" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C691" s="3">
         <v>5</v>
@@ -16727,7 +16715,7 @@
         <v>32</v>
       </c>
       <c r="B692" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C692" s="4">
         <v>6</v>
@@ -16750,7 +16738,7 @@
         <v>47</v>
       </c>
       <c r="B693" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C693" s="4">
         <v>1</v>
@@ -16773,7 +16761,7 @@
         <v>63</v>
       </c>
       <c r="B694" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C694" s="3">
         <v>3</v>
@@ -16796,7 +16784,7 @@
         <v>88</v>
       </c>
       <c r="B695" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C695" s="3">
         <v>1</v>
@@ -16819,7 +16807,7 @@
         <v>84</v>
       </c>
       <c r="B696" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C696" s="4">
         <v>7</v>
@@ -16842,7 +16830,7 @@
         <v>52</v>
       </c>
       <c r="B697" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C697" s="3">
         <v>1</v>
@@ -16865,7 +16853,7 @@
         <v>34</v>
       </c>
       <c r="B698" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C698" s="3">
         <v>4</v>
@@ -16888,7 +16876,7 @@
         <v>57</v>
       </c>
       <c r="B699" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C699" s="4">
         <v>4</v>
@@ -16911,7 +16899,7 @@
         <v>69</v>
       </c>
       <c r="B700" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C700" s="3">
         <v>8</v>
@@ -16934,7 +16922,7 @@
         <v>23</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C701" s="3">
         <v>1</v>
@@ -16957,7 +16945,7 @@
         <v>40</v>
       </c>
       <c r="B702" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C702" s="4">
         <v>3</v>
@@ -16980,7 +16968,7 @@
         <v>47</v>
       </c>
       <c r="B703" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C703" s="3">
         <v>5</v>
@@ -17003,7 +16991,7 @@
         <v>63</v>
       </c>
       <c r="B704" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C704" s="3">
         <v>8</v>
@@ -17026,7 +17014,7 @@
         <v>39</v>
       </c>
       <c r="B705" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C705" s="4">
         <v>1</v>
@@ -17049,7 +17037,7 @@
         <v>12</v>
       </c>
       <c r="B706" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C706" s="3">
         <v>1</v>
@@ -17072,7 +17060,7 @@
         <v>36</v>
       </c>
       <c r="B707" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C707" s="3">
         <v>1</v>
@@ -17095,7 +17083,7 @@
         <v>29</v>
       </c>
       <c r="B708" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C708" s="4">
         <v>1</v>
@@ -17118,7 +17106,7 @@
         <v>93</v>
       </c>
       <c r="B709" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C709" s="3">
         <v>6</v>
@@ -17141,7 +17129,7 @@
         <v>89</v>
       </c>
       <c r="B710" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C710" s="3">
         <v>5</v>
@@ -17164,7 +17152,7 @@
         <v>53</v>
       </c>
       <c r="B711" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C711" s="3">
         <v>8</v>
@@ -17187,7 +17175,7 @@
         <v>91</v>
       </c>
       <c r="B712" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C712" s="3">
         <v>6</v>
@@ -17210,7 +17198,7 @@
         <v>34</v>
       </c>
       <c r="B713" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C713" s="3">
         <v>6</v>
@@ -17233,7 +17221,7 @@
         <v>48</v>
       </c>
       <c r="B714" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C714" s="3">
         <v>5</v>
@@ -17256,7 +17244,7 @@
         <v>74</v>
       </c>
       <c r="B715" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C715" s="3">
         <v>1</v>
@@ -17279,7 +17267,7 @@
         <v>33</v>
       </c>
       <c r="B716" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C716" s="3">
         <v>1</v>
@@ -17302,7 +17290,7 @@
         <v>23</v>
       </c>
       <c r="B717" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C717" s="3">
         <v>3</v>
@@ -17325,7 +17313,7 @@
         <v>34</v>
       </c>
       <c r="B718" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C718" s="3">
         <v>4</v>
@@ -17348,7 +17336,7 @@
         <v>93</v>
       </c>
       <c r="B719" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C719" s="3">
         <v>3</v>
@@ -17371,7 +17359,7 @@
         <v>71</v>
       </c>
       <c r="B720" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C720" s="3">
         <v>8</v>
@@ -17394,7 +17382,7 @@
         <v>52</v>
       </c>
       <c r="B721" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C721" s="3">
         <v>6</v>
@@ -17417,7 +17405,7 @@
         <v>92</v>
       </c>
       <c r="B722" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C722" s="4">
         <v>6</v>
@@ -17440,7 +17428,7 @@
         <v>101</v>
       </c>
       <c r="B723" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C723" s="3">
         <v>1</v>
@@ -17463,7 +17451,7 @@
         <v>13</v>
       </c>
       <c r="B724" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C724" s="3">
         <v>1</v>
@@ -17486,7 +17474,7 @@
         <v>86</v>
       </c>
       <c r="B725" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C725" s="4">
         <v>3</v>
@@ -17509,7 +17497,7 @@
         <v>65</v>
       </c>
       <c r="B726" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C726" s="3">
         <v>1</v>
@@ -17532,7 +17520,7 @@
         <v>29</v>
       </c>
       <c r="B727" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C727" s="3">
         <v>6</v>
@@ -17555,7 +17543,7 @@
         <v>39</v>
       </c>
       <c r="B728" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C728" s="3">
         <v>1</v>
@@ -17578,7 +17566,7 @@
         <v>36</v>
       </c>
       <c r="B729" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C729" s="3">
         <v>1</v>
@@ -17601,7 +17589,7 @@
         <v>90</v>
       </c>
       <c r="B730" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C730" s="3">
         <v>6</v>
@@ -17624,7 +17612,7 @@
         <v>33</v>
       </c>
       <c r="B731" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C731" s="3">
         <v>1</v>
@@ -17647,7 +17635,7 @@
         <v>41</v>
       </c>
       <c r="B732" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C732" s="3">
         <v>1</v>
@@ -17670,7 +17658,7 @@
         <v>36</v>
       </c>
       <c r="B733" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C733" s="3">
         <v>1</v>
@@ -17693,7 +17681,7 @@
         <v>67</v>
       </c>
       <c r="B734" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C734" s="4">
         <v>1</v>
@@ -17716,7 +17704,7 @@
         <v>43</v>
       </c>
       <c r="B735" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C735" s="3">
         <v>1</v>
@@ -17739,7 +17727,7 @@
         <v>20</v>
       </c>
       <c r="B736" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C736" s="3">
         <v>5</v>
@@ -17762,7 +17750,7 @@
         <v>33</v>
       </c>
       <c r="B737" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C737" s="3">
         <v>1</v>
@@ -17785,7 +17773,7 @@
         <v>88</v>
       </c>
       <c r="B738" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C738" s="3">
         <v>1</v>
@@ -17808,7 +17796,7 @@
         <v>76</v>
       </c>
       <c r="B739" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C739" s="3">
         <v>2</v>
@@ -17831,7 +17819,7 @@
         <v>25</v>
       </c>
       <c r="B740" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C740" s="4">
         <v>1</v>
@@ -17854,7 +17842,7 @@
         <v>30</v>
       </c>
       <c r="B741" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C741" s="3">
         <v>8</v>
@@ -17877,7 +17865,7 @@
         <v>54</v>
       </c>
       <c r="B742" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C742" s="3">
         <v>4</v>
@@ -17900,7 +17888,7 @@
         <v>32</v>
       </c>
       <c r="B743" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C743" s="3">
         <v>6</v>
@@ -17923,7 +17911,7 @@
         <v>44</v>
       </c>
       <c r="B744" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C744" s="3">
         <v>7</v>
@@ -17946,7 +17934,7 @@
         <v>68</v>
       </c>
       <c r="B745" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C745" s="3">
         <v>1</v>
@@ -17969,7 +17957,7 @@
         <v>29</v>
       </c>
       <c r="B746" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C746" s="4">
         <v>5</v>
@@ -17992,7 +17980,7 @@
         <v>14</v>
       </c>
       <c r="B747" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C747" s="3">
         <v>5</v>
@@ -18015,7 +18003,7 @@
         <v>72</v>
       </c>
       <c r="B748" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C748" s="3">
         <v>6</v>
@@ -18038,7 +18026,7 @@
         <v>88</v>
       </c>
       <c r="B749" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C749" s="3">
         <v>5</v>
@@ -18061,7 +18049,7 @@
         <v>61</v>
       </c>
       <c r="B750" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C750" s="3">
         <v>6</v>
@@ -18084,7 +18072,7 @@
         <v>37</v>
       </c>
       <c r="B751" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C751" s="4">
         <v>1</v>
@@ -18107,7 +18095,7 @@
         <v>49</v>
       </c>
       <c r="B752" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C752" s="3">
         <v>4</v>
@@ -18130,7 +18118,7 @@
         <v>52</v>
       </c>
       <c r="B753" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C753" s="3">
         <v>4</v>
@@ -18153,7 +18141,7 @@
         <v>68</v>
       </c>
       <c r="B754" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C754" s="3">
         <v>1</v>
@@ -18176,7 +18164,7 @@
         <v>54</v>
       </c>
       <c r="B755" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C755" s="3">
         <v>1</v>
@@ -18199,7 +18187,7 @@
         <v>24</v>
       </c>
       <c r="B756" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C756" s="3">
         <v>3</v>
@@ -18222,7 +18210,7 @@
         <v>8</v>
       </c>
       <c r="B757" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C757" s="4">
         <v>3</v>
@@ -18245,7 +18233,7 @@
         <v>90</v>
       </c>
       <c r="B758" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C758" s="3">
         <v>8</v>
@@ -18268,7 +18256,7 @@
         <v>45</v>
       </c>
       <c r="B759" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C759" s="4">
         <v>8</v>
@@ -18291,7 +18279,7 @@
         <v>74</v>
       </c>
       <c r="B760" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C760" s="3">
         <v>8</v>
@@ -18314,7 +18302,7 @@
         <v>68</v>
       </c>
       <c r="B761" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C761" s="4">
         <v>6</v>
@@ -18337,7 +18325,7 @@
         <v>56</v>
       </c>
       <c r="B762" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C762" s="3">
         <v>7</v>
@@ -18360,7 +18348,7 @@
         <v>11</v>
       </c>
       <c r="B763" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C763" s="3">
         <v>1</v>
@@ -18383,7 +18371,7 @@
         <v>29</v>
       </c>
       <c r="B764" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C764" s="4">
         <v>2</v>
@@ -18406,7 +18394,7 @@
         <v>95</v>
       </c>
       <c r="B765" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C765" s="3">
         <v>1</v>
@@ -18429,7 +18417,7 @@
         <v>44</v>
       </c>
       <c r="B766" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C766" s="3">
         <v>4</v>
@@ -18452,22 +18440,22 @@
         <v>81</v>
       </c>
       <c r="B767" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C767" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D767" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E767" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F767" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G767" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:7" x14ac:dyDescent="0.35">
@@ -18475,7 +18463,7 @@
         <v>10</v>
       </c>
       <c r="B768" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C768" s="3">
         <v>5</v>
@@ -18498,7 +18486,7 @@
         <v>75</v>
       </c>
       <c r="B769" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C769" s="3">
         <v>1</v>
@@ -18521,7 +18509,7 @@
         <v>62</v>
       </c>
       <c r="B770" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C770" s="3">
         <v>1</v>
@@ -18544,7 +18532,7 @@
         <v>81</v>
       </c>
       <c r="B771" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C771" s="3">
         <v>1</v>
@@ -18567,7 +18555,7 @@
         <v>25</v>
       </c>
       <c r="B772" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C772" s="3">
         <v>1</v>
@@ -18590,7 +18578,7 @@
         <v>97</v>
       </c>
       <c r="B773" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C773" s="3">
         <v>2</v>
@@ -18613,7 +18601,7 @@
         <v>34</v>
       </c>
       <c r="B774" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C774" s="4">
         <v>2</v>
@@ -18636,7 +18624,7 @@
         <v>44</v>
       </c>
       <c r="B775" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C775" s="3">
         <v>3</v>
@@ -18659,7 +18647,7 @@
         <v>17</v>
       </c>
       <c r="B776" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C776" s="3">
         <v>2</v>
@@ -18682,7 +18670,7 @@
         <v>29</v>
       </c>
       <c r="B777" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C777" s="3">
         <v>1</v>
@@ -18705,7 +18693,7 @@
         <v>27</v>
       </c>
       <c r="B778" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C778" s="3">
         <v>2</v>
@@ -18728,7 +18716,7 @@
         <v>71</v>
       </c>
       <c r="B779" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C779" s="3">
         <v>3</v>
@@ -18751,7 +18739,7 @@
         <v>97</v>
       </c>
       <c r="B780" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C780" s="3">
         <v>2</v>
@@ -18774,7 +18762,7 @@
         <v>25</v>
       </c>
       <c r="B781" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C781" s="3">
         <v>2</v>
@@ -18797,7 +18785,7 @@
         <v>30</v>
       </c>
       <c r="B782" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C782" s="3">
         <v>1</v>
@@ -18820,7 +18808,7 @@
         <v>50</v>
       </c>
       <c r="B783" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C783" s="3">
         <v>1</v>
@@ -18843,7 +18831,7 @@
         <v>20</v>
       </c>
       <c r="B784" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C784" s="4">
         <v>1</v>
@@ -18866,7 +18854,7 @@
         <v>96</v>
       </c>
       <c r="B785" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C785" s="3">
         <v>8</v>
@@ -18889,7 +18877,7 @@
         <v>75</v>
       </c>
       <c r="B786" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C786" s="3">
         <v>1</v>
@@ -18912,7 +18900,7 @@
         <v>11</v>
       </c>
       <c r="B787" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C787" s="3">
         <v>1</v>
@@ -18935,7 +18923,7 @@
         <v>83</v>
       </c>
       <c r="B788" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C788" s="4">
         <v>8</v>
@@ -18958,7 +18946,7 @@
         <v>86</v>
       </c>
       <c r="B789" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C789" s="3">
         <v>1</v>
@@ -18981,7 +18969,7 @@
         <v>40</v>
       </c>
       <c r="B790" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C790" s="3">
         <v>8</v>
@@ -19004,7 +18992,7 @@
         <v>13</v>
       </c>
       <c r="B791" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C791" s="4">
         <v>1</v>
@@ -19027,7 +19015,7 @@
         <v>75</v>
       </c>
       <c r="B792" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C792" s="4">
         <v>6</v>
@@ -19050,7 +19038,7 @@
         <v>48</v>
       </c>
       <c r="B793" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C793" s="3">
         <v>1</v>
@@ -19073,7 +19061,7 @@
         <v>41</v>
       </c>
       <c r="B794" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C794" s="3">
         <v>5</v>
@@ -19096,7 +19084,7 @@
         <v>76</v>
       </c>
       <c r="B795" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C795" s="3">
         <v>4</v>
@@ -19119,7 +19107,7 @@
         <v>58</v>
       </c>
       <c r="B796" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C796" s="3">
         <v>3</v>
@@ -19142,7 +19130,7 @@
         <v>9</v>
       </c>
       <c r="B797" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C797" s="3">
         <v>7</v>
@@ -19165,7 +19153,7 @@
         <v>86</v>
       </c>
       <c r="B798" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C798" s="3">
         <v>5</v>
@@ -19188,7 +19176,7 @@
         <v>79</v>
       </c>
       <c r="B799" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C799" s="3">
         <v>6</v>
@@ -19211,7 +19199,7 @@
         <v>23</v>
       </c>
       <c r="B800" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C800" s="4">
         <v>8</v>
@@ -19234,7 +19222,7 @@
         <v>48</v>
       </c>
       <c r="B801" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C801" s="3">
         <v>1</v>
@@ -19257,7 +19245,7 @@
         <v>10</v>
       </c>
       <c r="B802" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C802" s="3">
         <v>6</v>
@@ -19280,7 +19268,7 @@
         <v>30</v>
       </c>
       <c r="B803" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C803" s="3">
         <v>5</v>
@@ -19303,7 +19291,7 @@
         <v>31</v>
       </c>
       <c r="B804" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C804" s="3">
         <v>3</v>
@@ -19326,7 +19314,7 @@
         <v>9</v>
       </c>
       <c r="B805" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C805" s="3">
         <v>7</v>
@@ -19349,7 +19337,7 @@
         <v>45</v>
       </c>
       <c r="B806" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C806" s="4">
         <v>1</v>
@@ -19372,7 +19360,7 @@
         <v>62</v>
       </c>
       <c r="B807" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C807" s="4">
         <v>4</v>
@@ -19395,7 +19383,7 @@
         <v>25</v>
       </c>
       <c r="B808" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C808" s="4">
         <v>2</v>
@@ -19418,7 +19406,7 @@
         <v>7</v>
       </c>
       <c r="B809" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C809" s="3">
         <v>1</v>
@@ -19441,7 +19429,7 @@
         <v>70</v>
       </c>
       <c r="B810" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C810" s="3">
         <v>6</v>
@@ -19464,7 +19452,7 @@
         <v>69</v>
       </c>
       <c r="B811" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C811" s="3">
         <v>2</v>
@@ -19487,7 +19475,7 @@
         <v>14</v>
       </c>
       <c r="B812" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C812" s="3">
         <v>1</v>
@@ -19510,7 +19498,7 @@
         <v>31</v>
       </c>
       <c r="B813" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C813" s="3">
         <v>8</v>
@@ -19533,7 +19521,7 @@
         <v>33</v>
       </c>
       <c r="B814" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C814" s="3">
         <v>1</v>
@@ -19556,7 +19544,7 @@
         <v>42</v>
       </c>
       <c r="B815" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C815" s="3">
         <v>1</v>
@@ -19579,7 +19567,7 @@
         <v>71</v>
       </c>
       <c r="B816" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C816" s="3">
         <v>3</v>
@@ -19602,7 +19590,7 @@
         <v>50</v>
       </c>
       <c r="B817" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C817" s="3">
         <v>3</v>
@@ -19625,7 +19613,7 @@
         <v>35</v>
       </c>
       <c r="B818" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C818" s="3">
         <v>2</v>
@@ -19648,7 +19636,7 @@
         <v>103</v>
       </c>
       <c r="B819" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C819" s="3">
         <v>8</v>
@@ -19671,7 +19659,7 @@
         <v>99</v>
       </c>
       <c r="B820" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C820" s="3">
         <v>6</v>
@@ -19694,7 +19682,7 @@
         <v>26</v>
       </c>
       <c r="B821" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C821" s="3">
         <v>1</v>
@@ -19717,7 +19705,7 @@
         <v>70</v>
       </c>
       <c r="B822" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C822" s="3">
         <v>3</v>
@@ -19740,7 +19728,7 @@
         <v>58</v>
       </c>
       <c r="B823" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C823" s="4">
         <v>7</v>
@@ -19763,7 +19751,7 @@
         <v>42</v>
       </c>
       <c r="B824" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C824" s="4">
         <v>1</v>
@@ -19786,7 +19774,7 @@
         <v>29</v>
       </c>
       <c r="B825" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C825" s="3">
         <v>4</v>
@@ -19809,7 +19797,7 @@
         <v>52</v>
       </c>
       <c r="B826" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C826" s="4">
         <v>5</v>
@@ -19832,7 +19820,7 @@
         <v>70</v>
       </c>
       <c r="B827" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C827" s="3">
         <v>1</v>
@@ -19855,7 +19843,7 @@
         <v>59</v>
       </c>
       <c r="B828" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C828" s="4">
         <v>7</v>
@@ -19878,7 +19866,7 @@
         <v>49</v>
       </c>
       <c r="B829" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C829" s="3">
         <v>4</v>
@@ -19901,7 +19889,7 @@
         <v>40</v>
       </c>
       <c r="B830" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C830" s="3">
         <v>5</v>
@@ -19924,7 +19912,7 @@
         <v>77</v>
       </c>
       <c r="B831" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C831" s="3">
         <v>1</v>
@@ -19947,7 +19935,7 @@
         <v>36</v>
       </c>
       <c r="B832" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C832" s="3">
         <v>1</v>
@@ -19970,7 +19958,7 @@
         <v>34</v>
       </c>
       <c r="B833" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C833" s="3">
         <v>1</v>
@@ -19993,7 +19981,7 @@
         <v>12</v>
       </c>
       <c r="B834" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C834" s="4">
         <v>1</v>
@@ -20016,7 +20004,7 @@
         <v>19</v>
       </c>
       <c r="B835" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C835" s="4">
         <v>5</v>
@@ -20039,7 +20027,7 @@
         <v>49</v>
       </c>
       <c r="B836" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C836" s="3">
         <v>5</v>
@@ -20062,7 +20050,7 @@
         <v>26</v>
       </c>
       <c r="B837" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C837" s="3">
         <v>1</v>
@@ -20085,7 +20073,7 @@
         <v>29</v>
       </c>
       <c r="B838" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C838" s="3">
         <v>4</v>
@@ -20108,7 +20096,7 @@
         <v>78</v>
       </c>
       <c r="B839" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C839" s="3">
         <v>1</v>
@@ -20131,7 +20119,7 @@
         <v>25</v>
       </c>
       <c r="B840" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C840" s="4">
         <v>2</v>
@@ -20154,7 +20142,7 @@
         <v>28</v>
       </c>
       <c r="B841" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C841" s="3">
         <v>6</v>
@@ -20177,7 +20165,7 @@
         <v>54</v>
       </c>
       <c r="B842" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C842" s="3">
         <v>4</v>
@@ -20200,7 +20188,7 @@
         <v>93</v>
       </c>
       <c r="B843" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C843" s="4">
         <v>8</v>
@@ -20223,7 +20211,7 @@
         <v>64</v>
       </c>
       <c r="B844" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C844" s="3">
         <v>1</v>
@@ -20246,7 +20234,7 @@
         <v>80</v>
       </c>
       <c r="B845" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C845" s="3">
         <v>8</v>
@@ -20269,7 +20257,7 @@
         <v>48</v>
       </c>
       <c r="B846" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C846" s="3">
         <v>6</v>
@@ -20292,7 +20280,7 @@
         <v>39</v>
       </c>
       <c r="B847" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C847" s="3">
         <v>5</v>
@@ -20315,7 +20303,7 @@
         <v>50</v>
       </c>
       <c r="B848" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C848" s="3">
         <v>6</v>
@@ -20338,7 +20326,7 @@
         <v>14</v>
       </c>
       <c r="B849" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C849" s="4">
         <v>4</v>
@@ -20361,7 +20349,7 @@
         <v>95</v>
       </c>
       <c r="B850" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C850" s="3">
         <v>1</v>
@@ -20384,7 +20372,7 @@
         <v>31</v>
       </c>
       <c r="B851" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C851" s="3">
         <v>5</v>
@@ -20407,7 +20395,7 @@
         <v>55</v>
       </c>
       <c r="B852" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C852" s="3">
         <v>1</v>
@@ -20430,7 +20418,7 @@
         <v>66</v>
       </c>
       <c r="B853" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C853" s="3">
         <v>1</v>
@@ -20453,7 +20441,7 @@
         <v>43</v>
       </c>
       <c r="B854" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C854" s="3">
         <v>1</v>
@@ -20476,7 +20464,7 @@
         <v>74</v>
       </c>
       <c r="B855" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C855" s="3">
         <v>4</v>
@@ -20499,7 +20487,7 @@
         <v>74</v>
       </c>
       <c r="B856" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C856" s="3">
         <v>1</v>
@@ -20522,7 +20510,7 @@
         <v>59</v>
       </c>
       <c r="B857" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C857" s="4">
         <v>5</v>
@@ -20545,7 +20533,7 @@
         <v>46</v>
       </c>
       <c r="B858" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C858" s="4">
         <v>3</v>
@@ -20568,7 +20556,7 @@
         <v>39</v>
       </c>
       <c r="B859" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C859" s="4">
         <v>1</v>
@@ -20591,7 +20579,7 @@
         <v>42</v>
       </c>
       <c r="B860" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C860" s="3">
         <v>4</v>
@@ -20614,7 +20602,7 @@
         <v>28</v>
       </c>
       <c r="B861" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C861" s="4">
         <v>3</v>
@@ -20637,7 +20625,7 @@
         <v>17</v>
       </c>
       <c r="B862" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C862" s="4">
         <v>5</v>
@@ -20660,7 +20648,7 @@
         <v>32</v>
       </c>
       <c r="B863" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C863" s="4">
         <v>2</v>
@@ -20683,7 +20671,7 @@
         <v>72</v>
       </c>
       <c r="B864" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C864" s="3">
         <v>1</v>
@@ -20706,7 +20694,7 @@
         <v>80</v>
       </c>
       <c r="B865" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C865" s="3">
         <v>8</v>
@@ -20729,7 +20717,7 @@
         <v>7</v>
       </c>
       <c r="B866" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C866" s="3">
         <v>7</v>
@@ -20752,7 +20740,7 @@
         <v>84</v>
       </c>
       <c r="B867" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C867" s="3">
         <v>2</v>
@@ -20775,7 +20763,7 @@
         <v>95</v>
       </c>
       <c r="B868" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C868" s="3">
         <v>8</v>
@@ -20798,7 +20786,7 @@
         <v>79</v>
       </c>
       <c r="B869" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C869" s="3">
         <v>4</v>
@@ -20821,7 +20809,7 @@
         <v>43</v>
       </c>
       <c r="B870" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C870" s="3">
         <v>1</v>
@@ -20844,7 +20832,7 @@
         <v>65</v>
       </c>
       <c r="B871" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C871" s="3">
         <v>6</v>
@@ -20867,7 +20855,7 @@
         <v>25</v>
       </c>
       <c r="B872" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C872" s="3">
         <v>6</v>
@@ -20890,7 +20878,7 @@
         <v>65</v>
       </c>
       <c r="B873" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C873" s="3">
         <v>1</v>
@@ -20913,7 +20901,7 @@
         <v>43</v>
       </c>
       <c r="B874" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C874" s="4">
         <v>1</v>
@@ -20936,7 +20924,7 @@
         <v>38</v>
       </c>
       <c r="B875" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C875" s="3">
         <v>5</v>
@@ -20959,7 +20947,7 @@
         <v>35</v>
       </c>
       <c r="B876" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C876" s="4">
         <v>2</v>
@@ -20982,7 +20970,7 @@
         <v>56</v>
       </c>
       <c r="B877" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C877" s="3">
         <v>7</v>
@@ -21005,7 +20993,7 @@
         <v>19</v>
       </c>
       <c r="B878" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C878" s="3">
         <v>3</v>
@@ -21028,7 +21016,7 @@
         <v>27</v>
       </c>
       <c r="B879" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C879" s="3">
         <v>7</v>
@@ -21051,7 +21039,7 @@
         <v>37</v>
       </c>
       <c r="B880" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C880" s="3">
         <v>1</v>
@@ -21074,7 +21062,7 @@
         <v>11</v>
       </c>
       <c r="B881" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C881" s="4">
         <v>1</v>
@@ -21097,7 +21085,7 @@
         <v>51</v>
       </c>
       <c r="B882" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C882" s="3">
         <v>2</v>
@@ -21120,7 +21108,7 @@
         <v>46</v>
       </c>
       <c r="B883" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C883" s="3">
         <v>8</v>
@@ -21143,7 +21131,7 @@
         <v>18</v>
       </c>
       <c r="B884" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C884" s="3">
         <v>4</v>
@@ -21166,22 +21154,22 @@
         <v>81</v>
       </c>
       <c r="B885" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C885" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D885" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E885" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F885" s="3">
         <v>1</v>
       </c>
       <c r="G885" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886" spans="1:7" x14ac:dyDescent="0.35">
@@ -21189,7 +21177,7 @@
         <v>85</v>
       </c>
       <c r="B886" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C886" s="3">
         <v>4</v>
@@ -21212,7 +21200,7 @@
         <v>83</v>
       </c>
       <c r="B887" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C887" s="3">
         <v>1</v>
@@ -21235,7 +21223,7 @@
         <v>8</v>
       </c>
       <c r="B888" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C888" s="4">
         <v>3</v>
@@ -21258,7 +21246,7 @@
         <v>8</v>
       </c>
       <c r="B889" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C889" s="4">
         <v>3</v>
@@ -21281,7 +21269,7 @@
         <v>17</v>
       </c>
       <c r="B890" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C890" s="4">
         <v>1</v>
@@ -21304,7 +21292,7 @@
         <v>67</v>
       </c>
       <c r="B891" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C891" s="3">
         <v>2</v>
@@ -21327,7 +21315,7 @@
         <v>64</v>
       </c>
       <c r="B892" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C892" s="3">
         <v>8</v>
@@ -21350,7 +21338,7 @@
         <v>52</v>
       </c>
       <c r="B893" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C893" s="3">
         <v>1</v>
@@ -21373,7 +21361,7 @@
         <v>90</v>
       </c>
       <c r="B894" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C894" s="3">
         <v>3</v>
@@ -21396,7 +21384,7 @@
         <v>89</v>
       </c>
       <c r="B895" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C895" s="3">
         <v>6</v>
@@ -21419,7 +21407,7 @@
         <v>16</v>
       </c>
       <c r="B896" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C896" s="3">
         <v>6</v>
@@ -21442,7 +21430,7 @@
         <v>97</v>
       </c>
       <c r="B897" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C897" s="3">
         <v>5</v>
@@ -21465,7 +21453,7 @@
         <v>13</v>
       </c>
       <c r="B898" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C898" s="3">
         <v>6</v>
@@ -21488,7 +21476,7 @@
         <v>44</v>
       </c>
       <c r="B899" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C899" s="3">
         <v>5</v>
@@ -21511,7 +21499,7 @@
         <v>15</v>
       </c>
       <c r="B900" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C900" s="4">
         <v>4</v>
@@ -21534,7 +21522,7 @@
         <v>89</v>
       </c>
       <c r="B901" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C901" s="3">
         <v>5</v>
@@ -21557,7 +21545,7 @@
         <v>15</v>
       </c>
       <c r="B902" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C902" s="3">
         <v>4</v>
@@ -21580,7 +21568,7 @@
         <v>17</v>
       </c>
       <c r="B903" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C903" s="3">
         <v>2</v>
@@ -21603,7 +21591,7 @@
         <v>85</v>
       </c>
       <c r="B904" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C904" s="3">
         <v>8</v>
@@ -21626,7 +21614,7 @@
         <v>14</v>
       </c>
       <c r="B905" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C905" s="3">
         <v>5</v>
@@ -21649,7 +21637,7 @@
         <v>70</v>
       </c>
       <c r="B906" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C906" s="3">
         <v>2</v>
@@ -21672,7 +21660,7 @@
         <v>7</v>
       </c>
       <c r="B907" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C907" s="3">
         <v>1</v>
@@ -21695,7 +21683,7 @@
         <v>21</v>
       </c>
       <c r="B908" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C908" s="3">
         <v>1</v>
@@ -21718,7 +21706,7 @@
         <v>61</v>
       </c>
       <c r="B909" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C909" s="3">
         <v>1</v>
@@ -21741,7 +21729,7 @@
         <v>11</v>
       </c>
       <c r="B910" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C910" s="3">
         <v>6</v>
@@ -21764,7 +21752,7 @@
         <v>19</v>
       </c>
       <c r="B911" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C911" s="3">
         <v>2</v>
@@ -21787,7 +21775,7 @@
         <v>27</v>
       </c>
       <c r="B912" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C912" s="3">
         <v>6</v>
@@ -21810,7 +21798,7 @@
         <v>7</v>
       </c>
       <c r="B913" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C913" s="3">
         <v>1</v>
@@ -21833,7 +21821,7 @@
         <v>39</v>
       </c>
       <c r="B914" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C914" s="3">
         <v>4</v>
@@ -21856,7 +21844,7 @@
         <v>24</v>
       </c>
       <c r="B915" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C915" s="3">
         <v>3</v>
@@ -21879,7 +21867,7 @@
         <v>87</v>
       </c>
       <c r="B916" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C916" s="3">
         <v>5</v>
@@ -21902,7 +21890,7 @@
         <v>78</v>
       </c>
       <c r="B917" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C917" s="3">
         <v>1</v>
@@ -21925,7 +21913,7 @@
         <v>73</v>
       </c>
       <c r="B918" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C918" s="4">
         <v>6</v>
@@ -21948,7 +21936,7 @@
         <v>75</v>
       </c>
       <c r="B919" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C919" s="3">
         <v>2</v>
@@ -21971,7 +21959,7 @@
         <v>73</v>
       </c>
       <c r="B920" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C920" s="3">
         <v>7</v>
@@ -21994,7 +21982,7 @@
         <v>22</v>
       </c>
       <c r="B921" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C921" s="3">
         <v>1</v>
@@ -22013,7 +22001,27 @@
       </c>
     </row>
     <row r="922" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F922" s="12"/>
+      <c r="A922" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B922" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C922" s="3">
+        <v>5</v>
+      </c>
+      <c r="D922" s="8">
+        <v>5</v>
+      </c>
+      <c r="E922" s="3">
+        <v>5</v>
+      </c>
+      <c r="F922" s="3">
+        <v>1</v>
+      </c>
+      <c r="G922" s="9">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
